--- a/model_exports/labels/2.0_False_False_8_0.xlsx
+++ b/model_exports/labels/2.0_False_False_8_0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C733"/>
+  <dimension ref="A1:C732"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,37 +453,37 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>t-494301276121731072</t>
+          <t>t-536414184204800001</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>t-536414184204800001</t>
+          <t>t-536957598252417024</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>t-536957598252417024</t>
+          <t>t-675691648802795522</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -492,20 +492,20 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>t-793443964900737024</t>
+          <t>t-1033470726521544704</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>t-500035862709948417</t>
+          <t>t-504042718663036928</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -518,7 +518,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>t-500685725482770433</t>
+          <t>t-504366068648148992</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -531,7 +531,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>t-501752547083059200</t>
+          <t>t-504850389129129984</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -544,7 +544,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>t-504042718663036928</t>
+          <t>t-504998704118394880</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -557,7 +557,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>t-504366068648148992</t>
+          <t>t-509432328561885184</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -570,7 +570,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>t-504850389129129984</t>
+          <t>t-495123711071387649</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -583,50 +583,50 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>t-504998704118394880</t>
+          <t>t-508961106849574912</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>t-495123711071387649</t>
+          <t>t-509046359354511360</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>t-501732075599593472</t>
+          <t>t-509083951655174144</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>t-610974241895354368</t>
+          <t>t-509100730960314368</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -635,63 +635,63 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>t-624374054338867201</t>
+          <t>t-509131102796414976</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>t-688456240490508289</t>
+          <t>t-509142523403862017</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>t-887418286014570496</t>
+          <t>t-509208349511262208</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>t-1047160746386382848</t>
+          <t>t-509223264921878528</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>t-548786999432605696</t>
+          <t>t-509224131880300544</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -700,20 +700,20 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>t-549031298929786880</t>
+          <t>t-511851013155090432</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>t-551476214402387968</t>
+          <t>t-512006361937616896</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -726,11 +726,11 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>t-551489050045988864</t>
+          <t>t-512017939579432960</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -739,7 +739,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>t-601392774370340865</t>
+          <t>t-561169293573115904</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -752,24 +752,24 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>t-605091889558261760</t>
+          <t>t-577847446270832640</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>t-605138894867161088</t>
+          <t>t-599446630732079104</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -778,20 +778,20 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>t-605351836636311552</t>
+          <t>t-690710236638777344</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>t-608798073561612289</t>
+          <t>t-690724653006921728</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -804,20 +804,20 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>t-658615758751211520</t>
+          <t>t-706805466739949568</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>t-658616745809330176</t>
+          <t>t-833214575512150018</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -830,7 +830,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>t-658617481574092800</t>
+          <t>t-1047160746386382848</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -843,33 +843,33 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>t-693851248634810368</t>
+          <t>t-497136108463865857</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>t-784233737512890376</t>
+          <t>t-977115036585021440</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>t-784234780590080001</t>
+          <t>t-498526651912032258</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -882,11 +882,11 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>t-798305189924982784</t>
+          <t>t-498546619508609024</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>t-848784048755531776</t>
+          <t>t-498600191088271361</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -908,7 +908,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>t-848852185962037248</t>
+          <t>t-498638581536399361</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -921,46 +921,46 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>t-848864915762929664</t>
+          <t>t-498641690949713920</t>
         </is>
       </c>
       <c r="B38" t="n">
         <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>t-848891572318072832</t>
+          <t>t-498643083517767681</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>t-849117747430797312</t>
+          <t>t-498648204872015872</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>t-849222321772658688</t>
+          <t>t-583290347863851008</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -973,7 +973,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>t-849255695249625088</t>
+          <t>t-585505175835648000</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -986,7 +986,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>t-849369868306665472</t>
+          <t>t-622509518346268672</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -999,33 +999,33 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>t-849634891255951364</t>
+          <t>t-686267623462408192</t>
         </is>
       </c>
       <c r="B44" t="n">
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>t-849637507117568000</t>
+          <t>t-694942679688437760</t>
         </is>
       </c>
       <c r="B45" t="n">
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>t-849667565186146304</t>
+          <t>t-695354495606259712</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -1038,50 +1038,50 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>t-849686849312501763</t>
+          <t>t-696194593700712448</t>
         </is>
       </c>
       <c r="B47" t="n">
         <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>t-849743357312024576</t>
+          <t>t-765195503457882112</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>t-850026468906340353</t>
+          <t>t-765297031346655232</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>t-850319148420694016</t>
+          <t>t-830539164638703616</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50" t="n">
         <v>1</v>
@@ -1090,24 +1090,24 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>t-850426637086842884</t>
+          <t>t-865644367372967936</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>t-850856929295552513</t>
+          <t>t-866152720700514304</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
@@ -1175,7 +1175,7 @@
         <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -1188,13 +1188,13 @@
         <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>t-950310866641149952</t>
+          <t>t-909776370410168323</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -1207,20 +1207,20 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>t-1000042512319483904</t>
+          <t>t-945777508007464961</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>t-1000115343019343872</t>
+          <t>t-973668678867746816</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -1233,46 +1233,46 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>t-1000762573766184961</t>
+          <t>t-973683665661198337</t>
         </is>
       </c>
       <c r="B62" t="n">
         <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>t-1001659726067830785</t>
+          <t>t-977248381662892039</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>t-832760057259384834</t>
+          <t>t-977294782048428032</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>t-832777578633064449</t>
+          <t>t-1022084644039258112</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -1285,7 +1285,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>t-875896081233567744</t>
+          <t>t-499691919128018944</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -1298,46 +1298,46 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>t-863147106038624256</t>
+          <t>t-513019810272137216</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>t-863168507747454977</t>
+          <t>t-812540411746975744</t>
         </is>
       </c>
       <c r="B68" t="n">
         <v>1</v>
       </c>
       <c r="C68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>t-1012224879310057472</t>
+          <t>t-822160325608734720</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>t-573406774969044992</t>
+          <t>t-822824168110493696</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -1350,7 +1350,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>t-573566918876995584</t>
+          <t>t-823329247884251137</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -1363,20 +1363,20 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>t-574621995633111040</t>
+          <t>t-975411428663345152</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>t-615459121891012608</t>
+          <t>t-502103720327671808</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -1389,7 +1389,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>t-768798517900906496</t>
+          <t>t-819315426853273600</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -1402,11 +1402,11 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>t-841634951439220736</t>
+          <t>t-1012224879310057472</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C75" t="n">
         <v>1</v>
@@ -1415,7 +1415,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>t-852681395487035392</t>
+          <t>t-533166195508117505</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -1428,11 +1428,11 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>t-958555465675362304</t>
+          <t>t-573406774969044992</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C77" t="n">
         <v>1</v>
@@ -1441,33 +1441,33 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>t-989808164907319296</t>
+          <t>t-573566918876995584</t>
         </is>
       </c>
       <c r="B78" t="n">
         <v>1</v>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>t-1015939762513956864</t>
+          <t>t-574621995633111040</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>t-610241505777856512</t>
+          <t>t-687924478219685888</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -1480,24 +1480,24 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>t-610629417715412992</t>
+          <t>t-687934498701455360</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>t-618483539777093632</t>
+          <t>t-753035409660186624</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
@@ -1506,50 +1506,50 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>t-788842589554343938</t>
+          <t>t-768798517900906496</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>t-878279115006136321</t>
+          <t>t-816207402437636096</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>t-593974566453555201</t>
+          <t>t-835997827369156608</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>t-611838090278121474</t>
+          <t>t-841634951439220736</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C86" t="n">
         <v>1</v>
@@ -1558,7 +1558,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>t-612267884463673344</t>
+          <t>t-950256330316615680</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -1571,7 +1571,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>t-612280320520425472</t>
+          <t>t-987586031829569536</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -1584,50 +1584,50 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>t-676063553162379265</t>
+          <t>t-987647086475673600</t>
         </is>
       </c>
       <c r="B89" t="n">
         <v>0</v>
       </c>
       <c r="C89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>t-710560200558653440</t>
+          <t>t-987928780621668352</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>t-717023541078728704</t>
+          <t>t-1049900608294137856</t>
         </is>
       </c>
       <c r="B91" t="n">
         <v>0</v>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>t-752623570010812416</t>
+          <t>t-618483539777093632</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
@@ -1636,20 +1636,20 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>t-752689111933214722</t>
+          <t>t-847556586600095745</t>
         </is>
       </c>
       <c r="B93" t="n">
         <v>1</v>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>t-752696262009450496</t>
+          <t>t-885277243991314432</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -1662,11 +1662,11 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>t-752724839081791488</t>
+          <t>t-885292685086646272</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
@@ -1675,33 +1675,33 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>t-767098705790906368</t>
+          <t>t-611838090278121474</t>
         </is>
       </c>
       <c r="B96" t="n">
         <v>0</v>
       </c>
       <c r="C96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>t-908760840886767616</t>
+          <t>t-612267884463673344</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>t-910574474956812289</t>
+          <t>t-612280320520425472</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -1714,20 +1714,20 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>t-917079758076370946</t>
+          <t>t-618057796345593856</t>
         </is>
       </c>
       <c r="B99" t="n">
         <v>0</v>
       </c>
       <c r="C99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>t-962999495893176320</t>
+          <t>t-619513224057061376</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -1740,7 +1740,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>t-984799310717030402</t>
+          <t>t-621832039763849218</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -1753,11 +1753,11 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>t-985113601743704064</t>
+          <t>t-621845142903754752</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C102" t="n">
         <v>1</v>
@@ -1766,7 +1766,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>t-985197038014001152</t>
+          <t>t-824338590389960704</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -1779,7 +1779,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>t-1016140956322713601</t>
+          <t>t-611854657594486784</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -1792,11 +1792,11 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>t-751267650043387906</t>
+          <t>t-764358428777078784</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C105" t="n">
         <v>1</v>
@@ -1805,50 +1805,50 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>t-623339394989166593</t>
+          <t>t-587673014826741760</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>t-840253641885913088</t>
+          <t>t-587688170382163969</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>t-878362748232622081</t>
+          <t>t-768897641946181632</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>t-843394427347320833</t>
+          <t>t-768901368044134400</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
@@ -1857,24 +1857,24 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>t-552005598615597057</t>
+          <t>t-1027386544536150016</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>t-552017511018168320</t>
+          <t>t-585851418843615232</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C111" t="n">
         <v>0</v>
@@ -1883,7 +1883,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>t-552021252442169344</t>
+          <t>t-641288611472654336</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -1896,33 +1896,33 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>t-552065463610802176</t>
+          <t>t-781902339066191873</t>
         </is>
       </c>
       <c r="B113" t="n">
         <v>0</v>
       </c>
       <c r="C113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>t-552468777791524864</t>
+          <t>t-966707160049766400</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>t-638954151821594624</t>
+          <t>t-967596306297483265</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -1935,20 +1935,20 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>t-639060084857929728</t>
+          <t>t-967763105525764097</t>
         </is>
       </c>
       <c r="B116" t="n">
         <v>1</v>
       </c>
       <c r="C116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>t-687545498014760960</t>
+          <t>t-967806729865060352</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -1961,11 +1961,11 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>t-871833381906067459</t>
+          <t>t-967827685333454849</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C118" t="n">
         <v>1</v>
@@ -1974,63 +1974,63 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>t-887680971797131264</t>
+          <t>t-968065709459750912</t>
         </is>
       </c>
       <c r="B119" t="n">
         <v>1</v>
       </c>
       <c r="C119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>t-887683274591662080</t>
+          <t>t-968790557077262336</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>t-887690953800253442</t>
+          <t>t-672497431242756096</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>t-887715764404449281</t>
+          <t>t-681802042885697536</t>
         </is>
       </c>
       <c r="B122" t="n">
         <v>1</v>
       </c>
       <c r="C122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>t-887751540173414404</t>
+          <t>t-682128192019234816</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
@@ -2039,7 +2039,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>t-887923666507489280</t>
+          <t>t-682147581405859841</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -2052,11 +2052,11 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>t-887928668626055169</t>
+          <t>t-682223092198936576</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C125" t="n">
         <v>0</v>
@@ -2065,11 +2065,11 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>t-887976731767918592</t>
+          <t>t-682287065824931840</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C126" t="n">
         <v>0</v>
@@ -2078,24 +2078,24 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>t-888083621801844737</t>
+          <t>t-682459381347254272</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>t-953935668199215104</t>
+          <t>t-682632199527641089</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C128" t="n">
         <v>0</v>
@@ -2104,7 +2104,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>t-953991296196149248</t>
+          <t>t-682755737790099456</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -2117,20 +2117,20 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>t-955387095228567552</t>
+          <t>t-682908634020470785</t>
         </is>
       </c>
       <c r="B130" t="n">
         <v>1</v>
       </c>
       <c r="C130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>t-956627624150880257</t>
+          <t>t-682915879026339840</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -2143,20 +2143,20 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>t-1042485319055155201</t>
+          <t>t-683017640638582784</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>t-918095751158300672</t>
+          <t>t-683036658942513152</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -2169,7 +2169,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>t-918096410427486208</t>
+          <t>t-683077568287866880</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -2182,20 +2182,20 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>t-918845060900380672</t>
+          <t>t-683235960692314112</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>t-928583361618169856</t>
+          <t>t-683258563628777472</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -2208,20 +2208,20 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>t-542093659286429696</t>
+          <t>t-683386799184543745</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>t-547652103607697408</t>
+          <t>t-683399457254326272</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -2234,7 +2234,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>t-583930739512713216</t>
+          <t>t-683602691965206528</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -2247,11 +2247,11 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>t-841795901764993024</t>
+          <t>t-683628764622905344</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C140" t="n">
         <v>0</v>
@@ -2260,33 +2260,33 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>t-841877177624850434</t>
+          <t>t-683644184683753472</t>
         </is>
       </c>
       <c r="B141" t="n">
         <v>0</v>
       </c>
       <c r="C141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>t-872693400436219904</t>
+          <t>t-683649428587155456</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>t-560163999057448960</t>
+          <t>t-683773064040050688</t>
         </is>
       </c>
       <c r="B143" t="n">
@@ -2299,24 +2299,24 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>t-622526710358114306</t>
+          <t>t-683968472968228864</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>t-624161549528096768</t>
+          <t>t-683979793273065473</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C145" t="n">
         <v>0</v>
@@ -2325,20 +2325,20 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>t-992180383449014272</t>
+          <t>t-684007082555748352</t>
         </is>
       </c>
       <c r="B146" t="n">
         <v>1</v>
       </c>
       <c r="C146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>t-992184677086777345</t>
+          <t>t-684323489562558465</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -2351,11 +2351,11 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>t-602966767602831362</t>
+          <t>t-685408547975331840</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C148" t="n">
         <v>1</v>
@@ -2364,11 +2364,11 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>t-602969826642898945</t>
+          <t>t-575924078906904576</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C149" t="n">
         <v>1</v>
@@ -2377,7 +2377,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>t-603005702697713664</t>
+          <t>t-743488475874353153</t>
         </is>
       </c>
       <c r="B150" t="n">
@@ -2390,37 +2390,37 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>t-607855197835149312</t>
+          <t>t-743501818358042625</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>t-618586257753374720</t>
+          <t>t-953935668199215104</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>t-698546841881853953</t>
+          <t>t-953991296196149248</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C153" t="n">
         <v>0</v>
@@ -2429,7 +2429,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>t-708373253648207873</t>
+          <t>t-956627624150880257</t>
         </is>
       </c>
       <c r="B154" t="n">
@@ -2442,37 +2442,37 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>t-745905684248694789</t>
+          <t>t-1014948759934066688</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>t-745992462448140288</t>
+          <t>t-1031843897373278208</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>t-746083614291562497</t>
+          <t>t-1042485319055155201</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C157" t="n">
         <v>0</v>
@@ -2481,7 +2481,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>t-766291748704423936</t>
+          <t>t-665687399033397248</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -2494,7 +2494,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>t-791266893470568448</t>
+          <t>t-928583361618169856</t>
         </is>
       </c>
       <c r="B159" t="n">
@@ -2507,11 +2507,11 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>t-791268686447378433</t>
+          <t>t-542093659286429696</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C160" t="n">
         <v>0</v>
@@ -2520,24 +2520,24 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>t-948592886060380161</t>
+          <t>t-862822528103759872</t>
         </is>
       </c>
       <c r="B161" t="n">
         <v>0</v>
       </c>
       <c r="C161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>t-961914631135617025</t>
+          <t>t-873219337427062785</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C162" t="n">
         <v>0</v>
@@ -2546,7 +2546,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>t-621875663901863937</t>
+          <t>t-876969646846603270</t>
         </is>
       </c>
       <c r="B163" t="n">
@@ -2559,7 +2559,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>t-865899138726100992</t>
+          <t>t-1022207950511923200</t>
         </is>
       </c>
       <c r="B164" t="n">
@@ -2572,7 +2572,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>t-1003953189820010496</t>
+          <t>t-595961510528180224</t>
         </is>
       </c>
       <c r="B165" t="n">
@@ -2585,33 +2585,33 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>t-671936284651196416</t>
+          <t>t-611182304984109057</t>
         </is>
       </c>
       <c r="B166" t="n">
         <v>1</v>
       </c>
       <c r="C166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>t-734825704412446721</t>
+          <t>t-902218968345272321</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>t-734826990281187328</t>
+          <t>t-1014543719205400576</t>
         </is>
       </c>
       <c r="B168" t="n">
@@ -2624,24 +2624,24 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>t-899745107900940288</t>
+          <t>t-1014578901966876672</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>t-899747204986019844</t>
+          <t>t-720931143055491072</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C170" t="n">
         <v>1</v>
@@ -2650,46 +2650,46 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>t-876214781744750592</t>
+          <t>t-598299676807340033</t>
         </is>
       </c>
       <c r="B171" t="n">
         <v>1</v>
       </c>
       <c r="C171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>t-829201577370075136</t>
+          <t>t-901151504714870784</t>
         </is>
       </c>
       <c r="B172" t="n">
         <v>0</v>
       </c>
       <c r="C172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>t-829349939947925504</t>
+          <t>t-986530301030682624</t>
         </is>
       </c>
       <c r="B173" t="n">
         <v>0</v>
       </c>
       <c r="C173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>t-829364075721326592</t>
+          <t>t-594613009575579649</t>
         </is>
       </c>
       <c r="B174" t="n">
@@ -2702,20 +2702,20 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>t-829412936661815299</t>
+          <t>t-696837842702446592</t>
         </is>
       </c>
       <c r="B175" t="n">
         <v>0</v>
       </c>
       <c r="C175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>t-977485288892059648</t>
+          <t>t-733769545261944833</t>
         </is>
       </c>
       <c r="B176" t="n">
@@ -2728,7 +2728,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>t-888405582352437248</t>
+          <t>t-766291748704423936</t>
         </is>
       </c>
       <c r="B177" t="n">
@@ -2741,7 +2741,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>t-1050435927066198018</t>
+          <t>t-791266893470568448</t>
         </is>
       </c>
       <c r="B178" t="n">
@@ -2754,20 +2754,20 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>t-1025638750783778816</t>
+          <t>t-791268686447378433</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>t-911670405483651072</t>
+          <t>t-849724022598139904</t>
         </is>
       </c>
       <c r="B180" t="n">
@@ -2780,20 +2780,20 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>t-530194842861580288</t>
+          <t>t-886294080040423425</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>t-604384366886834177</t>
+          <t>t-891497407179104257</t>
         </is>
       </c>
       <c r="B182" t="n">
@@ -2806,24 +2806,24 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>t-604797500965265408</t>
+          <t>t-917499339278254080</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>t-605112787141033985</t>
+          <t>t-972059634101047296</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C184" t="n">
         <v>1</v>
@@ -2832,72 +2832,72 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>t-605369768720396288</t>
+          <t>t-979726568175165440</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>t-652481072199036928</t>
+          <t>t-828748393916809216</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>t-660036667412082688</t>
+          <t>t-829760036348035072</t>
         </is>
       </c>
       <c r="B187" t="n">
         <v>0</v>
       </c>
       <c r="C187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>t-660641499701489665</t>
+          <t>t-1003953189820010496</t>
         </is>
       </c>
       <c r="B188" t="n">
         <v>1</v>
       </c>
       <c r="C188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>t-726041703153545216</t>
+          <t>t-649543845269667840</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>t-726754497737826305</t>
+          <t>t-861649200160710656</t>
         </is>
       </c>
       <c r="B190" t="n">
@@ -2910,11 +2910,11 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>t-735525963610660865</t>
+          <t>t-890798435175063552</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C191" t="n">
         <v>1</v>
@@ -2923,24 +2923,24 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>t-736203598091190272</t>
+          <t>t-883080365442838528</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>t-785997107094093825</t>
+          <t>t-883215183442739200</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C193" t="n">
         <v>1</v>
@@ -2949,11 +2949,11 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>t-870028367990599681</t>
+          <t>t-840282206979444737</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C194" t="n">
         <v>0</v>
@@ -2962,7 +2962,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>t-911712205657317376</t>
+          <t>t-840289139450925056</t>
         </is>
       </c>
       <c r="B195" t="n">
@@ -2975,7 +2975,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>t-925358435398488064</t>
+          <t>t-875514382276538369</t>
         </is>
       </c>
       <c r="B196" t="n">
@@ -2988,20 +2988,20 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>t-998567520113225733</t>
+          <t>t-780856348493832192</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>t-593171698846830592</t>
+          <t>t-977485288892059648</t>
         </is>
       </c>
       <c r="B198" t="n">
@@ -3014,7 +3014,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>t-643122505524322304</t>
+          <t>t-1029734360872771584</t>
         </is>
       </c>
       <c r="B199" t="n">
@@ -3027,7 +3027,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>t-697902764966301696</t>
+          <t>t-992428512744222721</t>
         </is>
       </c>
       <c r="B200" t="n">
@@ -3040,7 +3040,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>t-756927547049320448</t>
+          <t>t-892821066799820805</t>
         </is>
       </c>
       <c r="B201" t="n">
@@ -3053,11 +3053,11 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>t-885230061556813824</t>
+          <t>t-898119475089686528</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C202" t="n">
         <v>1</v>
@@ -3066,7 +3066,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>t-885519574443020288</t>
+          <t>t-898375447507030017</t>
         </is>
       </c>
       <c r="B203" t="n">
@@ -3079,20 +3079,20 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>t-967489391517192192</t>
+          <t>t-898397795245215744</t>
         </is>
       </c>
       <c r="B204" t="n">
         <v>0</v>
       </c>
       <c r="C204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>t-761355220198756352</t>
+          <t>t-985241133159796736</t>
         </is>
       </c>
       <c r="B205" t="n">
@@ -3105,7 +3105,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>t-761372714925891586</t>
+          <t>t-1021604631217164289</t>
         </is>
       </c>
       <c r="B206" t="n">
@@ -3118,11 +3118,11 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>t-581999689727389696</t>
+          <t>t-1021652512343031808</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C207" t="n">
         <v>1</v>
@@ -3131,59 +3131,59 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>t-594878604397432832</t>
+          <t>t-1021683870188503041</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>t-616575922674769920</t>
+          <t>t-1021786238024527873</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>t-616694572853256192</t>
+          <t>t-1031076096287105024</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>t-673837939248472064</t>
+          <t>t-863311681820258304</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>t-732832771106865153</t>
+          <t>t-640924573647503360</t>
         </is>
       </c>
       <c r="B212" t="n">
@@ -3196,24 +3196,24 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>t-745683270160027648</t>
+          <t>t-641489320088436736</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>t-775760180936048640</t>
+          <t>t-682987194840150016</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C214" t="n">
         <v>1</v>
@@ -3222,20 +3222,20 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>t-775760740204552192</t>
+          <t>t-746718356405882880</t>
         </is>
       </c>
       <c r="B215" t="n">
         <v>1</v>
       </c>
       <c r="C215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>t-775766510182731776</t>
+          <t>t-752596726066843648</t>
         </is>
       </c>
       <c r="B216" t="n">
@@ -3248,20 +3248,20 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>t-775772257327128576</t>
+          <t>t-753413745230094338</t>
         </is>
       </c>
       <c r="B217" t="n">
         <v>1</v>
       </c>
       <c r="C217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>t-775805122920189952</t>
+          <t>t-784456849215123457</t>
         </is>
       </c>
       <c r="B218" t="n">
@@ -3274,7 +3274,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>t-776165588917944320</t>
+          <t>t-820042974197334018</t>
         </is>
       </c>
       <c r="B219" t="n">
@@ -3287,7 +3287,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>t-810931684396896256</t>
+          <t>t-898515685369946113</t>
         </is>
       </c>
       <c r="B220" t="n">
@@ -3300,33 +3300,33 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>t-811056347773026304</t>
+          <t>t-900495545885757441</t>
         </is>
       </c>
       <c r="B221" t="n">
         <v>1</v>
       </c>
       <c r="C221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>t-811268248448724993</t>
+          <t>t-900708018983227393</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>t-903533073358352385</t>
+          <t>t-905607663798636547</t>
         </is>
       </c>
       <c r="B223" t="n">
@@ -3339,33 +3339,33 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>t-903589529143189504</t>
+          <t>t-906292765633515520</t>
         </is>
       </c>
       <c r="B224" t="n">
         <v>0</v>
       </c>
       <c r="C224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>t-953220290657492992</t>
+          <t>t-906696780133388288</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>t-1000764381108555776</t>
+          <t>t-1026272267364253698</t>
         </is>
       </c>
       <c r="B226" t="n">
@@ -3378,7 +3378,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>t-1049984041888505856</t>
+          <t>t-1047282657053298690</t>
         </is>
       </c>
       <c r="B227" t="n">
@@ -3391,7 +3391,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>t-1051063984038776837</t>
+          <t>t-533407970244456448</t>
         </is>
       </c>
       <c r="B228" t="n">
@@ -3404,20 +3404,20 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>t-903255663417204736</t>
+          <t>t-628272138890252288</t>
         </is>
       </c>
       <c r="B229" t="n">
         <v>0</v>
       </c>
       <c r="C229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>t-772514094360305664</t>
+          <t>t-634745305263640576</t>
         </is>
       </c>
       <c r="B230" t="n">
@@ -3430,24 +3430,24 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>t-833086724096028673</t>
+          <t>t-646027426347155456</t>
         </is>
       </c>
       <c r="B231" t="n">
         <v>1</v>
       </c>
       <c r="C231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>t-666910428551897088</t>
+          <t>t-958376851084337153</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C232" t="n">
         <v>0</v>
@@ -3456,11 +3456,11 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>t-946151169231114241</t>
+          <t>t-660890514741399552</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C233" t="n">
         <v>1</v>
@@ -3469,7 +3469,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>t-578199507671904256</t>
+          <t>t-661115206525915136</t>
         </is>
       </c>
       <c r="B234" t="n">
@@ -3482,7 +3482,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>t-578943021716250624</t>
+          <t>t-661147212135727104</t>
         </is>
       </c>
       <c r="B235" t="n">
@@ -3495,72 +3495,72 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>t-573292412430376960</t>
+          <t>t-661201099085377537</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>t-628489671656517632</t>
+          <t>t-681483416165048320</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>t-788874378666737664</t>
+          <t>t-708952691926548480</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>t-854766668387684352</t>
+          <t>t-726061174727532544</t>
         </is>
       </c>
       <c r="B239" t="n">
         <v>1</v>
       </c>
       <c r="C239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>t-855160087563907072</t>
+          <t>t-739781293882347520</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>t-855212425251086337</t>
+          <t>t-775760180936048640</t>
         </is>
       </c>
       <c r="B241" t="n">
@@ -3573,20 +3573,20 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>t-862378347007025154</t>
+          <t>t-775760740204552192</t>
         </is>
       </c>
       <c r="B242" t="n">
         <v>1</v>
       </c>
       <c r="C242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>t-891969624929075201</t>
+          <t>t-775766510182731776</t>
         </is>
       </c>
       <c r="B243" t="n">
@@ -3599,37 +3599,37 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>t-892105609071349760</t>
+          <t>t-775772257327128576</t>
         </is>
       </c>
       <c r="B244" t="n">
         <v>1</v>
       </c>
       <c r="C244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>t-892129259686428672</t>
+          <t>t-775805122920189952</t>
         </is>
       </c>
       <c r="B245" t="n">
         <v>1</v>
       </c>
       <c r="C245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>t-981529575271337984</t>
+          <t>t-776165588917944320</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C246" t="n">
         <v>1</v>
@@ -3638,20 +3638,20 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>t-567287806645395457</t>
+          <t>t-810931684396896256</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>t-645024639639535616</t>
+          <t>t-811056347773026304</t>
         </is>
       </c>
       <c r="B248" t="n">
@@ -3664,7 +3664,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>t-659011315088781312</t>
+          <t>t-811268248448724993</t>
         </is>
       </c>
       <c r="B249" t="n">
@@ -3677,46 +3677,46 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>t-659473740955189248</t>
+          <t>t-849475288652238849</t>
         </is>
       </c>
       <c r="B250" t="n">
         <v>0</v>
       </c>
       <c r="C250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>t-787849177581649920</t>
+          <t>t-913153226706472965</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>t-900702851202207746</t>
+          <t>t-972048308909826048</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>t-901999787855228933</t>
+          <t>t-1006258184636510210</t>
         </is>
       </c>
       <c r="B253" t="n">
@@ -3729,7 +3729,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>t-902015237951549441</t>
+          <t>t-1049984041888505856</t>
         </is>
       </c>
       <c r="B254" t="n">
@@ -3742,7 +3742,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>t-764130662836084739</t>
+          <t>t-1051063984038776837</t>
         </is>
       </c>
       <c r="B255" t="n">
@@ -3755,20 +3755,20 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>t-884636889948471296</t>
+          <t>t-541450804008218624</t>
         </is>
       </c>
       <c r="B256" t="n">
         <v>0</v>
       </c>
       <c r="C256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>t-889534953825779712</t>
+          <t>t-910953097316376576</t>
         </is>
       </c>
       <c r="B257" t="n">
@@ -3781,59 +3781,59 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>t-889639312169500672</t>
+          <t>t-910955895714123776</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C258" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>t-1052977443760427009</t>
+          <t>t-1045126070540865541</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C259" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>t-609166003570802689</t>
+          <t>t-602992695011889152</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>t-874804635327905792</t>
+          <t>t-696805827110428676</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C261" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>t-579030352271917056</t>
+          <t>t-817123537488084993</t>
         </is>
       </c>
       <c r="B262" t="n">
@@ -3846,11 +3846,11 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>t-579089809991331841</t>
+          <t>t-698062078922375169</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C263" t="n">
         <v>1</v>
@@ -3859,20 +3859,20 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>t-640921153591050240</t>
+          <t>t-795702151049834496</t>
         </is>
       </c>
       <c r="B264" t="n">
         <v>0</v>
       </c>
       <c r="C264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>t-724222646435508224</t>
+          <t>t-951353773321945088</t>
         </is>
       </c>
       <c r="B265" t="n">
@@ -3885,7 +3885,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>t-880307230364508160</t>
+          <t>t-951370648210767877</t>
         </is>
       </c>
       <c r="B266" t="n">
@@ -3898,20 +3898,20 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>t-910191038052077569</t>
+          <t>t-649689751415599105</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C267" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>t-975332165528576000</t>
+          <t>t-755764875155083264</t>
         </is>
       </c>
       <c r="B268" t="n">
@@ -3924,37 +3924,37 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>t-607899372177747968</t>
+          <t>t-697026011876233216</t>
         </is>
       </c>
       <c r="B269" t="n">
         <v>1</v>
       </c>
       <c r="C269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>t-880261784304631810</t>
+          <t>t-565107354606518272</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C270" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>t-1049990926406492160</t>
+          <t>t-854766668387684352</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C271" t="n">
         <v>1</v>
@@ -3963,37 +3963,37 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>t-612283618052825088</t>
+          <t>t-855160087563907072</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C272" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>t-914224756555055104</t>
+          <t>t-855212425251086337</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C273" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>t-631280418583658496</t>
+          <t>t-880769643060842496</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C274" t="n">
         <v>1</v>
@@ -4002,46 +4002,46 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>t-756001538783326208</t>
+          <t>t-968874912806068224</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>t-756128433025843200</t>
+          <t>t-567287806645395457</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>t-756153001300156416</t>
+          <t>t-817491496857255936</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>t-756172674531942400</t>
+          <t>t-637980934705422337</t>
         </is>
       </c>
       <c r="B278" t="n">
@@ -4054,7 +4054,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>t-983744396364480512</t>
+          <t>t-787849177581649920</t>
         </is>
       </c>
       <c r="B279" t="n">
@@ -4067,20 +4067,20 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>t-876856640372387842</t>
+          <t>t-900702851202207746</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C280" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>t-655890642334257152</t>
+          <t>t-889534953825779712</t>
         </is>
       </c>
       <c r="B281" t="n">
@@ -4093,7 +4093,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>t-667433104118833152</t>
+          <t>t-889639312169500672</t>
         </is>
       </c>
       <c r="B282" t="n">
@@ -4106,20 +4106,20 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>t-1027575306226475008</t>
+          <t>t-873677712304463872</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C283" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>t-803234433000148994</t>
+          <t>t-599007393494605824</t>
         </is>
       </c>
       <c r="B284" t="n">
@@ -4132,7 +4132,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>t-803236909183107073</t>
+          <t>t-599125027116568576</t>
         </is>
       </c>
       <c r="B285" t="n">
@@ -4145,24 +4145,24 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>t-803260822801649664</t>
+          <t>t-609930400341725185</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>t-803260889940062209</t>
+          <t>t-609937116462604289</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C287" t="n">
         <v>1</v>
@@ -4171,33 +4171,33 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>t-803271446357282816</t>
+          <t>t-724222646435508224</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>t-736702899519004674</t>
+          <t>t-860258475883937792</t>
         </is>
       </c>
       <c r="B289" t="n">
         <v>0</v>
       </c>
       <c r="C289" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>t-668278058953084928</t>
+          <t>t-1041460734738063360</t>
         </is>
       </c>
       <c r="B290" t="n">
@@ -4210,7 +4210,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>t-715587588204015616</t>
+          <t>t-1041507023660081152</t>
         </is>
       </c>
       <c r="B291" t="n">
@@ -4223,7 +4223,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>t-803284826191171584</t>
+          <t>t-1049670308142206978</t>
         </is>
       </c>
       <c r="B292" t="n">
@@ -4236,7 +4236,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>t-1001848606427697153</t>
+          <t>t-644964294954741760</t>
         </is>
       </c>
       <c r="B293" t="n">
@@ -4249,7 +4249,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>t-736405703838044160</t>
+          <t>t-914224756555055104</t>
         </is>
       </c>
       <c r="B294" t="n">
@@ -4262,20 +4262,20 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>t-859881873865973760</t>
+          <t>t-1050079983765311488</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>t-859891336627048448</t>
+          <t>t-1055172080499515392</t>
         </is>
       </c>
       <c r="B296" t="n">
@@ -4288,7 +4288,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>t-859891655167664129</t>
+          <t>t-1055204302220943368</t>
         </is>
       </c>
       <c r="B297" t="n">
@@ -4301,37 +4301,37 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>t-1054497487657021440</t>
+          <t>t-646070620120215552</t>
         </is>
       </c>
       <c r="B298" t="n">
         <v>1</v>
       </c>
       <c r="C298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>t-853267425386803200</t>
+          <t>t-719978473687633922</t>
         </is>
       </c>
       <c r="B299" t="n">
         <v>0</v>
       </c>
       <c r="C299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>t-738154348752953345</t>
+          <t>t-651424335614353409</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C300" t="n">
         <v>0</v>
@@ -4340,33 +4340,33 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>t-738363319199928321</t>
+          <t>t-651596952564572160</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>t-738396040357761024</t>
+          <t>t-671722697408290816</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>t-738456086156443648</t>
+          <t>t-653702331221999616</t>
         </is>
       </c>
       <c r="B303" t="n">
@@ -4379,7 +4379,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>t-738474348290277376</t>
+          <t>t-655890642334257152</t>
         </is>
       </c>
       <c r="B304" t="n">
@@ -4392,7 +4392,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>t-1016527492478328832</t>
+          <t>t-886426015374946304</t>
         </is>
       </c>
       <c r="B305" t="n">
@@ -4405,7 +4405,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>t-1009997647032344576</t>
+          <t>t-661127792231321600</t>
         </is>
       </c>
       <c r="B306" t="n">
@@ -4418,7 +4418,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>t-1025467650649014283</t>
+          <t>t-803234433000148994</t>
         </is>
       </c>
       <c r="B307" t="n">
@@ -4431,7 +4431,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>t-1025523844994412544</t>
+          <t>t-803236909183107073</t>
         </is>
       </c>
       <c r="B308" t="n">
@@ -4444,7 +4444,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>t-1025538626191380480</t>
+          <t>t-803260822801649664</t>
         </is>
       </c>
       <c r="B309" t="n">
@@ -4457,37 +4457,37 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>t-1026286692037222401</t>
+          <t>t-803260889940062209</t>
         </is>
       </c>
       <c r="B310" t="n">
         <v>1</v>
       </c>
       <c r="C310" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>t-1026301775203037184</t>
+          <t>t-803271446357282816</t>
         </is>
       </c>
       <c r="B311" t="n">
         <v>1</v>
       </c>
       <c r="C311" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>t-1026820332710252544</t>
+          <t>t-727600217265049600</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C312" t="n">
         <v>0</v>
@@ -4496,72 +4496,72 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>t-1027725663703363584</t>
+          <t>t-910961880700559360</t>
         </is>
       </c>
       <c r="B313" t="n">
         <v>1</v>
       </c>
       <c r="C313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>t-1029396532313968640</t>
+          <t>t-679420394223345665</t>
         </is>
       </c>
       <c r="B314" t="n">
         <v>1</v>
       </c>
       <c r="C314" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>t-1029397392343425024</t>
+          <t>t-736405703838044160</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>t-1029408763877498885</t>
+          <t>t-725450676986335232</t>
         </is>
       </c>
       <c r="B316" t="n">
         <v>1</v>
       </c>
       <c r="C316" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>t-1029408838305361921</t>
+          <t>t-1016527492478328832</t>
         </is>
       </c>
       <c r="B317" t="n">
         <v>1</v>
       </c>
       <c r="C317" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>t-1029566349918527488</t>
+          <t>t-761251305100902400</t>
         </is>
       </c>
       <c r="B318" t="n">
@@ -4574,20 +4574,20 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>t-911704954636824576</t>
+          <t>t-1011820273774006272</t>
         </is>
       </c>
       <c r="B319" t="n">
         <v>1</v>
       </c>
       <c r="C319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>t-843607928133292033</t>
+          <t>t-1012308763422937089</t>
         </is>
       </c>
       <c r="B320" t="n">
@@ -4600,7 +4600,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>t-1016293496980955136</t>
+          <t>t-946020250805514240</t>
         </is>
       </c>
       <c r="B321" t="n">
@@ -4613,20 +4613,20 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>t-764984507686490112</t>
+          <t>t-772460103026868224</t>
         </is>
       </c>
       <c r="B322" t="n">
         <v>1</v>
       </c>
       <c r="C322" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>t-913112779548176384</t>
+          <t>t-768829814824247296</t>
         </is>
       </c>
       <c r="B323" t="n">
@@ -4639,33 +4639,33 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>t-925465361557975040</t>
+          <t>t-768861970195881986</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C324" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>t-812266777711431682</t>
+          <t>t-768886684955975680</t>
         </is>
       </c>
       <c r="B325" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C325" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>t-1049947970664304640</t>
+          <t>t-769194684576960513</t>
         </is>
       </c>
       <c r="B326" t="n">
@@ -4678,7 +4678,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>t-847243626082050048</t>
+          <t>t-783618446827356161</t>
         </is>
       </c>
       <c r="B327" t="n">
@@ -4691,37 +4691,37 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>t-847412512383356932</t>
+          <t>t-784456852864065536</t>
         </is>
       </c>
       <c r="B328" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C328" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>t-847416452424519680</t>
+          <t>t-996488939933401088</t>
         </is>
       </c>
       <c r="B329" t="n">
         <v>1</v>
       </c>
       <c r="C329" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>t-847625871712112640</t>
+          <t>t-814469186323939328</t>
         </is>
       </c>
       <c r="B330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C330" t="n">
         <v>0</v>
@@ -4730,7 +4730,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>t-847873968065433600</t>
+          <t>t-1049947970664304640</t>
         </is>
       </c>
       <c r="B331" t="n">
@@ -4743,11 +4743,11 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>t-848285144846921728</t>
+          <t>t-834760589746569216</t>
         </is>
       </c>
       <c r="B332" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C332" t="n">
         <v>0</v>
@@ -4756,20 +4756,20 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>t-848349687950266373</t>
+          <t>t-863757133304795136</t>
         </is>
       </c>
       <c r="B333" t="n">
         <v>1</v>
       </c>
       <c r="C333" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>t-848632201470259200</t>
+          <t>t-884885746984681473</t>
         </is>
       </c>
       <c r="B334" t="n">
@@ -4782,7 +4782,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>t-848638922687221760</t>
+          <t>t-884938114657128448</t>
         </is>
       </c>
       <c r="B335" t="n">
@@ -4795,20 +4795,20 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>t-848870222769606658</t>
+          <t>t-894457279076020224</t>
         </is>
       </c>
       <c r="B336" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C336" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>t-848971430775709697</t>
+          <t>t-1052284815779622917</t>
         </is>
       </c>
       <c r="B337" t="n">
@@ -4821,7 +4821,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>t-849083151532032000</t>
+          <t>t-1052565742183272454</t>
         </is>
       </c>
       <c r="B338" t="n">
@@ -4834,7 +4834,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>t-849228504088670208</t>
+          <t>t-1052712831517450241</t>
         </is>
       </c>
       <c r="B339" t="n">
@@ -4847,37 +4847,37 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>t-850470638624133120</t>
+          <t>t-905261367573090305</t>
         </is>
       </c>
       <c r="B340" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C340" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>t-885945201105219584</t>
+          <t>t-913905079392047105</t>
         </is>
       </c>
       <c r="B341" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C341" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>t-885947457330438145</t>
+          <t>t-999404160775872512</t>
         </is>
       </c>
       <c r="B342" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C342" t="n">
         <v>1</v>
@@ -4886,20 +4886,20 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>t-939854628749004801</t>
+          <t>t-1034792477096652801</t>
         </is>
       </c>
       <c r="B343" t="n">
         <v>0</v>
       </c>
       <c r="C343" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>t-830540407763300352</t>
+          <t>t-499943241962487808</t>
         </is>
       </c>
       <c r="B344" t="n">
@@ -4912,85 +4912,85 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>t-902559120888184833</t>
+          <t>t-912723744195596289</t>
         </is>
       </c>
       <c r="B345" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C345" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>t-903611928827674624</t>
+          <t>t-970747848747778048</t>
         </is>
       </c>
       <c r="B346" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C346" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>t-882704580865404928</t>
+          <t>t-1022200671666401281</t>
         </is>
       </c>
       <c r="B347" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C347" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>t-1026649986782650369</t>
+          <t>t-635439309563260929</t>
         </is>
       </c>
       <c r="B348" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C348" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>t-1041752836835614720</t>
+          <t>t-635461097114484736</t>
         </is>
       </c>
       <c r="B349" t="n">
         <v>1</v>
       </c>
       <c r="C349" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>t-1042831980822454273</t>
+          <t>t-635467880918818816</t>
         </is>
       </c>
       <c r="B350" t="n">
         <v>1</v>
       </c>
       <c r="C350" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>t-1042864703981084672</t>
+          <t>t-635469518022803456</t>
         </is>
       </c>
       <c r="B351" t="n">
@@ -5003,7 +5003,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>t-1042868533963776005</t>
+          <t>t-635491308438728704</t>
         </is>
       </c>
       <c r="B352" t="n">
@@ -5016,33 +5016,33 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>t-1043255346553389058</t>
+          <t>t-635718998781390848</t>
         </is>
       </c>
       <c r="B353" t="n">
         <v>1</v>
       </c>
       <c r="C353" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>t-499943241962487808</t>
+          <t>t-636228687013265410</t>
         </is>
       </c>
       <c r="B354" t="n">
         <v>1</v>
       </c>
       <c r="C354" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>t-616316575658807296</t>
+          <t>t-522926675542421504</t>
         </is>
       </c>
       <c r="B355" t="n">
@@ -5055,11 +5055,11 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>t-708340740556980225</t>
+          <t>t-722253771867181056</t>
         </is>
       </c>
       <c r="B356" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C356" t="n">
         <v>0</v>
@@ -5068,24 +5068,24 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>t-912723744195596289</t>
+          <t>t-722818069320470529</t>
         </is>
       </c>
       <c r="B357" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C357" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>t-965605976698126341</t>
+          <t>t-722837910135832577</t>
         </is>
       </c>
       <c r="B358" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C358" t="n">
         <v>1</v>
@@ -5094,85 +5094,85 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>t-989520576460001280</t>
+          <t>t-722884869374619648</t>
         </is>
       </c>
       <c r="B359" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C359" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>t-1016375311733284864</t>
+          <t>t-723517423786299392</t>
         </is>
       </c>
       <c r="B360" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C360" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>t-1022200671666401281</t>
+          <t>t-737154199411122176</t>
         </is>
       </c>
       <c r="B361" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C361" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>t-520694218625675264</t>
+          <t>t-931216910477414400</t>
         </is>
       </c>
       <c r="B362" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C362" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>t-521063203389050882</t>
+          <t>t-586533262912315392</t>
         </is>
       </c>
       <c r="B363" t="n">
         <v>0</v>
       </c>
       <c r="C363" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>t-521358835361927168</t>
+          <t>t-782797451639914497</t>
         </is>
       </c>
       <c r="B364" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C364" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>t-738823278840664064</t>
+          <t>t-909677183328751616</t>
         </is>
       </c>
       <c r="B365" t="n">
@@ -5185,20 +5185,20 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>t-786070938412515329</t>
+          <t>t-875802481292439553</t>
         </is>
       </c>
       <c r="B366" t="n">
         <v>0</v>
       </c>
       <c r="C366" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>t-786266752061669376</t>
+          <t>t-965860574339923968</t>
         </is>
       </c>
       <c r="B367" t="n">
@@ -5211,33 +5211,33 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>t-786287404416135168</t>
+          <t>t-538674754086244353</t>
         </is>
       </c>
       <c r="B368" t="n">
         <v>1</v>
       </c>
       <c r="C368" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>t-786588204170346496</t>
+          <t>t-1051891605035241474</t>
         </is>
       </c>
       <c r="B369" t="n">
         <v>0</v>
       </c>
       <c r="C369" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>t-786674211528015873</t>
+          <t>t-677902230650003457</t>
         </is>
       </c>
       <c r="B370" t="n">
@@ -5250,76 +5250,76 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>t-950172807996026880</t>
+          <t>t-691624168824115200</t>
         </is>
       </c>
       <c r="B371" t="n">
         <v>0</v>
       </c>
       <c r="C371" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>t-950367246299394048</t>
+          <t>t-691706624386404353</t>
         </is>
       </c>
       <c r="B372" t="n">
         <v>0</v>
       </c>
       <c r="C372" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>t-1006187748338864128</t>
+          <t>t-704942166137806848</t>
         </is>
       </c>
       <c r="B373" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C373" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>t-1006198330727247872</t>
+          <t>t-704999838627340289</t>
         </is>
       </c>
       <c r="B374" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C374" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>t-1006207380676280320</t>
+          <t>t-705097327791443968</t>
         </is>
       </c>
       <c r="B375" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C375" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>t-1006582449827209216</t>
+          <t>t-706027191709077505</t>
         </is>
       </c>
       <c r="B376" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C376" t="n">
         <v>0</v>
@@ -5328,33 +5328,33 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>t-1051696567651106816</t>
+          <t>t-706161724236423169</t>
         </is>
       </c>
       <c r="B377" t="n">
         <v>0</v>
       </c>
       <c r="C377" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>t-1051874637942947840</t>
+          <t>t-706568676607205384</t>
         </is>
       </c>
       <c r="B378" t="n">
         <v>0</v>
       </c>
       <c r="C378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>t-517992573227778048</t>
+          <t>t-706777295768461313</t>
         </is>
       </c>
       <c r="B379" t="n">
@@ -5367,7 +5367,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>t-676836902981513216</t>
+          <t>t-706777701902917632</t>
         </is>
       </c>
       <c r="B380" t="n">
@@ -5380,7 +5380,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>t-869830075268685825</t>
+          <t>t-706793199285739522</t>
         </is>
       </c>
       <c r="B381" t="n">
@@ -5393,7 +5393,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>t-1001002093895921665</t>
+          <t>t-707823125115879424</t>
         </is>
       </c>
       <c r="B382" t="n">
@@ -5406,7 +5406,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>t-642554131211755524</t>
+          <t>t-707871375474749441</t>
         </is>
       </c>
       <c r="B383" t="n">
@@ -5419,46 +5419,46 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>t-676099835372654592</t>
+          <t>t-748093412272910336</t>
         </is>
       </c>
       <c r="B384" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C384" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>t-819866466162012160</t>
+          <t>t-913063437118341121</t>
         </is>
       </c>
       <c r="B385" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C385" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>t-865447859285405696</t>
+          <t>t-925333063336321024</t>
         </is>
       </c>
       <c r="B386" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C386" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>t-865573879527428096</t>
+          <t>t-954338199610019841</t>
         </is>
       </c>
       <c r="B387" t="n">
@@ -5471,11 +5471,11 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>t-534007858804056066</t>
+          <t>t-954407598069084160</t>
         </is>
       </c>
       <c r="B388" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C388" t="n">
         <v>0</v>
@@ -5484,11 +5484,11 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>t-541965663666184192</t>
+          <t>t-954798702530412546</t>
         </is>
       </c>
       <c r="B389" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C389" t="n">
         <v>0</v>
@@ -5497,11 +5497,11 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>t-576412478135005185</t>
+          <t>t-955111272852414464</t>
         </is>
       </c>
       <c r="B390" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C390" t="n">
         <v>1</v>
@@ -5510,46 +5510,46 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>t-591871892283334656</t>
+          <t>t-955374632034594816</t>
         </is>
       </c>
       <c r="B391" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C391" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>t-595190714205634560</t>
+          <t>t-955380505121259520</t>
         </is>
       </c>
       <c r="B392" t="n">
         <v>0</v>
       </c>
       <c r="C392" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>t-702966418057330688</t>
+          <t>t-955409675251482624</t>
         </is>
       </c>
       <c r="B393" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C393" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>t-703646494901927936</t>
+          <t>t-955739643634421760</t>
         </is>
       </c>
       <c r="B394" t="n">
@@ -5562,7 +5562,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>t-704942166137806848</t>
+          <t>t-955742558189162496</t>
         </is>
       </c>
       <c r="B395" t="n">
@@ -5575,20 +5575,20 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>t-704999838627340289</t>
+          <t>t-955766281730445313</t>
         </is>
       </c>
       <c r="B396" t="n">
         <v>0</v>
       </c>
       <c r="C396" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>t-705097327791443968</t>
+          <t>t-955807241533304833</t>
         </is>
       </c>
       <c r="B397" t="n">
@@ -5601,7 +5601,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>t-706027191709077505</t>
+          <t>t-956101750120857601</t>
         </is>
       </c>
       <c r="B398" t="n">
@@ -5614,7 +5614,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>t-706161724236423169</t>
+          <t>t-956220929067151360</t>
         </is>
       </c>
       <c r="B399" t="n">
@@ -5627,20 +5627,20 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>t-706568676607205384</t>
+          <t>t-956413340225589248</t>
         </is>
       </c>
       <c r="B400" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C400" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>t-706777295768461313</t>
+          <t>t-956438932681523200</t>
         </is>
       </c>
       <c r="B401" t="n">
@@ -5653,7 +5653,7 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>t-706777701902917632</t>
+          <t>t-956447631714279424</t>
         </is>
       </c>
       <c r="B402" t="n">
@@ -5666,7 +5666,7 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>t-706793199285739522</t>
+          <t>t-956464588559671297</t>
         </is>
       </c>
       <c r="B403" t="n">
@@ -5679,128 +5679,128 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>t-707823125115879424</t>
+          <t>t-956513066228834304</t>
         </is>
       </c>
       <c r="B404" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C404" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>t-707871375474749441</t>
+          <t>t-987423120817643520</t>
         </is>
       </c>
       <c r="B405" t="n">
         <v>0</v>
       </c>
       <c r="C405" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>t-744549085244334080</t>
+          <t>t-571286359673053184</t>
         </is>
       </c>
       <c r="B406" t="n">
         <v>1</v>
       </c>
       <c r="C406" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>t-744630770116005888</t>
+          <t>t-571344417145135105</t>
         </is>
       </c>
       <c r="B407" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C407" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>t-745023417267724289</t>
+          <t>t-623733200322449409</t>
         </is>
       </c>
       <c r="B408" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C408" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>t-745961763473080321</t>
+          <t>t-629936150220685312</t>
         </is>
       </c>
       <c r="B409" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C409" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>t-746461142604668928</t>
+          <t>t-669507403621277696</t>
         </is>
       </c>
       <c r="B410" t="n">
         <v>0</v>
       </c>
       <c r="C410" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>t-783909177920020480</t>
+          <t>t-669900887607898113</t>
         </is>
       </c>
       <c r="B411" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C411" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>t-784305124269182976</t>
+          <t>t-699529516008476673</t>
         </is>
       </c>
       <c r="B412" t="n">
         <v>0</v>
       </c>
       <c r="C412" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>t-787588682731626496</t>
+          <t>t-828957006832795648</t>
         </is>
       </c>
       <c r="B413" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C413" t="n">
         <v>1</v>
@@ -5809,7 +5809,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>t-836980367781396480</t>
+          <t>t-832880826807418880</t>
         </is>
       </c>
       <c r="B414" t="n">
@@ -5822,33 +5822,33 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>t-894594064582094852</t>
+          <t>t-972395558735368192</t>
         </is>
       </c>
       <c r="B415" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C415" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>t-977899948724379649</t>
+          <t>t-1057351782484115458</t>
         </is>
       </c>
       <c r="B416" t="n">
         <v>0</v>
       </c>
       <c r="C416" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>t-981811338774183936</t>
+          <t>t-657116242692734976</t>
         </is>
       </c>
       <c r="B417" t="n">
@@ -5861,7 +5861,7 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>t-982165823350423552</t>
+          <t>t-960782723957870592</t>
         </is>
       </c>
       <c r="B418" t="n">
@@ -5874,20 +5874,20 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>t-1024937575906271233</t>
+          <t>t-1000392026742034432</t>
         </is>
       </c>
       <c r="B419" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C419" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>t-549859905231142914</t>
+          <t>t-1000411846237675521</t>
         </is>
       </c>
       <c r="B420" t="n">
@@ -5900,33 +5900,33 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>t-800633887386988544</t>
+          <t>t-1000414273863069696</t>
         </is>
       </c>
       <c r="B421" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C421" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>t-846728089912643588</t>
+          <t>t-1000416714763505664</t>
         </is>
       </c>
       <c r="B422" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C422" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>t-652334979544948736</t>
+          <t>t-670699425879191552</t>
         </is>
       </c>
       <c r="B423" t="n">
@@ -5939,11 +5939,11 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>t-818362228881719296</t>
+          <t>t-756468934379966464</t>
         </is>
       </c>
       <c r="B424" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C424" t="n">
         <v>1</v>
@@ -5952,11 +5952,11 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>t-818369931054030848</t>
+          <t>t-970012076428193796</t>
         </is>
       </c>
       <c r="B425" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C425" t="n">
         <v>1</v>
@@ -5965,37 +5965,37 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>t-818390305326137344</t>
+          <t>t-1006487935733174274</t>
         </is>
       </c>
       <c r="B426" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C426" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>t-818474161949601796</t>
+          <t>t-722410262058397697</t>
         </is>
       </c>
       <c r="B427" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C427" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>t-818513625468010496</t>
+          <t>t-1003856366128259073</t>
         </is>
       </c>
       <c r="B428" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C428" t="n">
         <v>1</v>
@@ -6004,11 +6004,11 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>t-818701658280628224</t>
+          <t>t-583486848426713088</t>
         </is>
       </c>
       <c r="B429" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C429" t="n">
         <v>1</v>
@@ -6017,50 +6017,50 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>t-818709014498443264</t>
+          <t>t-587481090845179905</t>
         </is>
       </c>
       <c r="B430" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C430" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>t-819113813505146880</t>
+          <t>t-591228165827260416</t>
         </is>
       </c>
       <c r="B431" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C431" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>t-831105804946247681</t>
+          <t>t-592904512131768321</t>
         </is>
       </c>
       <c r="B432" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C432" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>t-832880826807418880</t>
+          <t>t-595251975568109568</t>
         </is>
       </c>
       <c r="B433" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C433" t="n">
         <v>1</v>
@@ -6069,11 +6069,11 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>t-958216984176427008</t>
+          <t>t-741661270017970176</t>
         </is>
       </c>
       <c r="B434" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C434" t="n">
         <v>0</v>
@@ -6082,7 +6082,7 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>t-962370594363838464</t>
+          <t>t-892583343426072576</t>
         </is>
       </c>
       <c r="B435" t="n">
@@ -6095,11 +6095,11 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>t-707530442468098049</t>
+          <t>t-593397061376147456</t>
         </is>
       </c>
       <c r="B436" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C436" t="n">
         <v>1</v>
@@ -6108,50 +6108,50 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>t-707587020831518720</t>
+          <t>t-877183876254269441</t>
         </is>
       </c>
       <c r="B437" t="n">
         <v>1</v>
       </c>
       <c r="C437" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>t-979424136656125952</t>
+          <t>t-877213422538158080</t>
         </is>
       </c>
       <c r="B438" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C438" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>t-633755138834874368</t>
+          <t>t-948800001890713600</t>
         </is>
       </c>
       <c r="B439" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C439" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>t-888068991020929025</t>
+          <t>t-594811114661228544</t>
         </is>
       </c>
       <c r="B440" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C440" t="n">
         <v>1</v>
@@ -6160,33 +6160,33 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>t-580368693688999936</t>
+          <t>t-595126127343116288</t>
         </is>
       </c>
       <c r="B441" t="n">
         <v>0</v>
       </c>
       <c r="C441" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>t-865160167155003392</t>
+          <t>t-608689054549471232</t>
         </is>
       </c>
       <c r="B442" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C442" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>t-1006487935733174274</t>
+          <t>t-610036486059200513</t>
         </is>
       </c>
       <c r="B443" t="n">
@@ -6199,46 +6199,46 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>t-580822339648122880</t>
+          <t>t-612221773757681664</t>
         </is>
       </c>
       <c r="B444" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C444" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>t-581167008596758528</t>
+          <t>t-1019348620489969664</t>
         </is>
       </c>
       <c r="B445" t="n">
         <v>0</v>
       </c>
       <c r="C445" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>t-850396935152422913</t>
+          <t>t-1021061872274018305</t>
         </is>
       </c>
       <c r="B446" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C446" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>t-859839256700882944</t>
+          <t>t-1017675550318612480</t>
         </is>
       </c>
       <c r="B447" t="n">
@@ -6251,7 +6251,7 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>t-860843222091935744</t>
+          <t>t-884366275937521664</t>
         </is>
       </c>
       <c r="B448" t="n">
@@ -6264,24 +6264,24 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>t-861496628741640192</t>
+          <t>t-907976446286680066</t>
         </is>
       </c>
       <c r="B449" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C449" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>t-1027292918111825921</t>
+          <t>t-908018109373730816</t>
         </is>
       </c>
       <c r="B450" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C450" t="n">
         <v>1</v>
@@ -6290,7 +6290,7 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>t-712917955391172609</t>
+          <t>t-619208680349765633</t>
         </is>
       </c>
       <c r="B451" t="n">
@@ -6303,50 +6303,50 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>t-742289179535659008</t>
+          <t>t-641169109116293120</t>
         </is>
       </c>
       <c r="B452" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C452" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>t-743359058392940544</t>
+          <t>t-639695836943884288</t>
         </is>
       </c>
       <c r="B453" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C453" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>t-586494775089442816</t>
+          <t>t-1006630570447777793</t>
         </is>
       </c>
       <c r="B454" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C454" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>t-817303376253882368</t>
+          <t>t-1018847155090542593</t>
         </is>
       </c>
       <c r="B455" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C455" t="n">
         <v>1</v>
@@ -6355,20 +6355,20 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>t-940281474259062789</t>
+          <t>t-642781966346010625</t>
         </is>
       </c>
       <c r="B456" t="n">
         <v>1</v>
       </c>
       <c r="C456" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>t-737572670372339712</t>
+          <t>t-643095780228771840</t>
         </is>
       </c>
       <c r="B457" t="n">
@@ -6381,20 +6381,20 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>t-592904512131768321</t>
+          <t>t-643795122480631808</t>
         </is>
       </c>
       <c r="B458" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C458" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>t-690751741676142592</t>
+          <t>t-910016271554576384</t>
         </is>
       </c>
       <c r="B459" t="n">
@@ -6407,7 +6407,7 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>t-892583343426072576</t>
+          <t>t-784413747376893952</t>
         </is>
       </c>
       <c r="B460" t="n">
@@ -6420,7 +6420,7 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>t-895521975434530816</t>
+          <t>t-1005827335977885696</t>
         </is>
       </c>
       <c r="B461" t="n">
@@ -6433,37 +6433,37 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>t-895525136580923394</t>
+          <t>t-676501548063657984</t>
         </is>
       </c>
       <c r="B462" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C462" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>t-942758921533624320</t>
+          <t>t-701060752074010624</t>
         </is>
       </c>
       <c r="B463" t="n">
         <v>1</v>
       </c>
       <c r="C463" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>t-801458708786151425</t>
+          <t>t-835605594534981633</t>
         </is>
       </c>
       <c r="B464" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C464" t="n">
         <v>1</v>
@@ -6472,7 +6472,7 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>t-594549643134009344</t>
+          <t>t-835708598772727808</t>
         </is>
       </c>
       <c r="B465" t="n">
@@ -6485,24 +6485,24 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>t-624613462476337152</t>
+          <t>t-952055483354972160</t>
         </is>
       </c>
       <c r="B466" t="n">
         <v>1</v>
       </c>
       <c r="C466" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>t-624628271745998852</t>
+          <t>t-720951969716809728</t>
         </is>
       </c>
       <c r="B467" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C467" t="n">
         <v>1</v>
@@ -6511,33 +6511,33 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>t-728815708801531904</t>
+          <t>t-736808558038265858</t>
         </is>
       </c>
       <c r="B468" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C468" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>t-728860742099849216</t>
+          <t>t-979633616404844544</t>
         </is>
       </c>
       <c r="B469" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C469" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>t-955539710214057984</t>
+          <t>t-953202460994232320</t>
         </is>
       </c>
       <c r="B470" t="n">
@@ -6550,37 +6550,37 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>t-955816204769390593</t>
+          <t>t-953212881809518592</t>
         </is>
       </c>
       <c r="B471" t="n">
         <v>0</v>
       </c>
       <c r="C471" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>t-1050165943790460929</t>
+          <t>t-949613613874077704</t>
         </is>
       </c>
       <c r="B472" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C472" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>t-594811114661228544</t>
+          <t>t-957301618868965376</t>
         </is>
       </c>
       <c r="B473" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C473" t="n">
         <v>0</v>
@@ -6589,11 +6589,11 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>t-595126127343116288</t>
+          <t>t-737766517157330945</t>
         </is>
       </c>
       <c r="B474" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C474" t="n">
         <v>1</v>
@@ -6602,11 +6602,11 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>t-949260261575229441</t>
+          <t>t-737944067741454336</t>
         </is>
       </c>
       <c r="B475" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C475" t="n">
         <v>1</v>
@@ -6615,24 +6615,24 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>t-608642817427156992</t>
+          <t>t-884308996835991554</t>
         </is>
       </c>
       <c r="B476" t="n">
         <v>1</v>
       </c>
       <c r="C476" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>t-608689054549471232</t>
+          <t>t-952868151414403072</t>
         </is>
       </c>
       <c r="B477" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C477" t="n">
         <v>0</v>
@@ -6641,7 +6641,7 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>t-867803560930627585</t>
+          <t>t-956876178509516800</t>
         </is>
       </c>
       <c r="B478" t="n">
@@ -6654,7 +6654,7 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>t-868025997010055168</t>
+          <t>t-738250548865032192</t>
         </is>
       </c>
       <c r="B479" t="n">
@@ -6667,7 +6667,7 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>t-868097086021095425</t>
+          <t>t-738751926372827136</t>
         </is>
       </c>
       <c r="B480" t="n">
@@ -6680,7 +6680,7 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>t-869075299467763714</t>
+          <t>t-740042390703099904</t>
         </is>
       </c>
       <c r="B481" t="n">
@@ -6693,33 +6693,33 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>t-760350969154723840</t>
+          <t>t-740196910300962816</t>
         </is>
       </c>
       <c r="B482" t="n">
         <v>1</v>
       </c>
       <c r="C482" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>t-997420355043102720</t>
+          <t>t-1002274254954647552</t>
         </is>
       </c>
       <c r="B483" t="n">
         <v>1</v>
       </c>
       <c r="C483" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>t-631869539597336576</t>
+          <t>t-1002283218085863430</t>
         </is>
       </c>
       <c r="B484" t="n">
@@ -6732,11 +6732,11 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>t-632875946828255232</t>
+          <t>t-740249467828482048</t>
         </is>
       </c>
       <c r="B485" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C485" t="n">
         <v>1</v>
@@ -6745,20 +6745,20 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>t-740216200379158528</t>
+          <t>t-860462128263811072</t>
         </is>
       </c>
       <c r="B486" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C486" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>t-740233298862080000</t>
+          <t>t-743445326611251200</t>
         </is>
       </c>
       <c r="B487" t="n">
@@ -6771,7 +6771,7 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>t-740234615814819840</t>
+          <t>t-743816866171326464</t>
         </is>
       </c>
       <c r="B488" t="n">
@@ -6784,7 +6784,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>t-740250007081766912</t>
+          <t>t-746386418465914880</t>
         </is>
       </c>
       <c r="B489" t="n">
@@ -6797,7 +6797,7 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>t-740302081416962049</t>
+          <t>t-906552804285861889</t>
         </is>
       </c>
       <c r="B490" t="n">
@@ -6810,20 +6810,20 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>t-1032956238051659778</t>
+          <t>t-834314501134614528</t>
         </is>
       </c>
       <c r="B491" t="n">
         <v>1</v>
       </c>
       <c r="C491" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>t-1018847155090542593</t>
+          <t>t-952289558770651136</t>
         </is>
       </c>
       <c r="B492" t="n">
@@ -6836,7 +6836,7 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>t-642781966346010625</t>
+          <t>t-952536637413584897</t>
         </is>
       </c>
       <c r="B493" t="n">
@@ -6849,20 +6849,20 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>t-643095780228771840</t>
+          <t>t-952649290148704259</t>
         </is>
       </c>
       <c r="B494" t="n">
         <v>1</v>
       </c>
       <c r="C494" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>t-643795122480631808</t>
+          <t>t-952989314534617088</t>
         </is>
       </c>
       <c r="B495" t="n">
@@ -6875,11 +6875,11 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>t-643112220348534784</t>
+          <t>t-990385513898094592</t>
         </is>
       </c>
       <c r="B496" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C496" t="n">
         <v>0</v>
@@ -6888,7 +6888,7 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>t-1056610127975997440</t>
+          <t>t-1019231079817973760</t>
         </is>
       </c>
       <c r="B497" t="n">
@@ -6901,7 +6901,7 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>t-652148120952803329</t>
+          <t>t-1002130830792241153</t>
         </is>
       </c>
       <c r="B498" t="n">
@@ -6914,20 +6914,20 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>t-859792354395533312</t>
+          <t>t-904852554470883329</t>
         </is>
       </c>
       <c r="B499" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C499" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>t-860626885302202369</t>
+          <t>t-913806353851969537</t>
         </is>
       </c>
       <c r="B500" t="n">
@@ -6940,7 +6940,7 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>t-861365904025714688</t>
+          <t>t-938446444700237824</t>
         </is>
       </c>
       <c r="B501" t="n">
@@ -6953,20 +6953,20 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>t-861657024731467783</t>
+          <t>t-955559981331419136</t>
         </is>
       </c>
       <c r="B502" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C502" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>t-861897864632578048</t>
+          <t>t-1030184521969410055</t>
         </is>
       </c>
       <c r="B503" t="n">
@@ -6979,7 +6979,7 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>t-862094425949917185</t>
+          <t>t-500549350234554368</t>
         </is>
       </c>
       <c r="B504" t="n">
@@ -6992,11 +6992,11 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>t-862663540179701760</t>
+          <t>t-550997963590610944</t>
         </is>
       </c>
       <c r="B505" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C505" t="n">
         <v>0</v>
@@ -7005,7 +7005,7 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>t-666556746308198401</t>
+          <t>t-551059868657152002</t>
         </is>
       </c>
       <c r="B506" t="n">
@@ -7018,37 +7018,37 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>t-671784280259866624</t>
+          <t>t-551164779646038017</t>
         </is>
       </c>
       <c r="B507" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C507" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>t-676501548063657984</t>
+          <t>t-552328482282553344</t>
         </is>
       </c>
       <c r="B508" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C508" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>t-943797632639610881</t>
+          <t>t-552381413899898881</t>
         </is>
       </c>
       <c r="B509" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C509" t="n">
         <v>0</v>
@@ -7057,33 +7057,33 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>t-708088836748910592</t>
+          <t>t-552754433155928064</t>
         </is>
       </c>
       <c r="B510" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C510" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>t-781871738888065024</t>
+          <t>t-552860760968138752</t>
         </is>
       </c>
       <c r="B511" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C511" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>t-897572628667478020</t>
+          <t>t-552960294360977408</t>
         </is>
       </c>
       <c r="B512" t="n">
@@ -7096,7 +7096,7 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>t-852243165302198273</t>
+          <t>t-553046169975148544</t>
         </is>
       </c>
       <c r="B513" t="n">
@@ -7109,11 +7109,11 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>t-734423204488445952</t>
+          <t>t-553111267569713154</t>
         </is>
       </c>
       <c r="B514" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C514" t="n">
         <v>1</v>
@@ -7122,20 +7122,20 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>t-736607968997838848</t>
+          <t>t-553535305601392640</t>
         </is>
       </c>
       <c r="B515" t="n">
         <v>1</v>
       </c>
       <c r="C515" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>t-979633616404844544</t>
+          <t>t-620843348505432064</t>
         </is>
       </c>
       <c r="B516" t="n">
@@ -7148,50 +7148,50 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>t-737558350011867138</t>
+          <t>t-645961089671405568</t>
         </is>
       </c>
       <c r="B517" t="n">
         <v>1</v>
       </c>
       <c r="C517" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>t-738417908926320643</t>
+          <t>t-664426560234110976</t>
         </is>
       </c>
       <c r="B518" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C518" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>t-738664460173381632</t>
+          <t>t-686071224749821953</t>
         </is>
       </c>
       <c r="B519" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C519" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>t-957930793187397632</t>
+          <t>t-730666173340209152</t>
         </is>
       </c>
       <c r="B520" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C520" t="n">
         <v>1</v>
@@ -7200,46 +7200,46 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>t-963803678573547520</t>
+          <t>t-788186519307563010</t>
         </is>
       </c>
       <c r="B521" t="n">
         <v>0</v>
       </c>
       <c r="C521" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>t-890865444307042304</t>
+          <t>t-790900222368976896</t>
         </is>
       </c>
       <c r="B522" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C522" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>t-1003603539539742720</t>
+          <t>t-790909371781746688</t>
         </is>
       </c>
       <c r="B523" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C523" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>t-737703959993913344</t>
+          <t>t-791594802844434434</t>
         </is>
       </c>
       <c r="B524" t="n">
@@ -7252,33 +7252,33 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>t-737753796202385408</t>
+          <t>t-823528889578377221</t>
         </is>
       </c>
       <c r="B525" t="n">
         <v>1</v>
       </c>
       <c r="C525" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>t-737755886211477504</t>
+          <t>t-823565116511617024</t>
         </is>
       </c>
       <c r="B526" t="n">
         <v>1</v>
       </c>
       <c r="C526" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>t-737784335567364096</t>
+          <t>t-823567614731382784</t>
         </is>
       </c>
       <c r="B527" t="n">
@@ -7291,7 +7291,7 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>t-737884729626791936</t>
+          <t>t-823729659921760256</t>
         </is>
       </c>
       <c r="B528" t="n">
@@ -7304,33 +7304,33 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>t-737979350088323072</t>
+          <t>t-823776797145763840</t>
         </is>
       </c>
       <c r="B529" t="n">
         <v>1</v>
       </c>
       <c r="C529" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>t-1006391548668514309</t>
+          <t>t-823797969539338240</t>
         </is>
       </c>
       <c r="B530" t="n">
         <v>1</v>
       </c>
       <c r="C530" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>t-1006459221448318981</t>
+          <t>t-824162412861464576</t>
         </is>
       </c>
       <c r="B531" t="n">
@@ -7343,20 +7343,20 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>t-738762935133188098</t>
+          <t>t-824171170761162752</t>
         </is>
       </c>
       <c r="B532" t="n">
         <v>1</v>
       </c>
       <c r="C532" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>t-897405884489506816</t>
+          <t>t-824209269432012802</t>
         </is>
       </c>
       <c r="B533" t="n">
@@ -7369,7 +7369,7 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>t-902928093131808770</t>
+          <t>t-824256850644176897</t>
         </is>
       </c>
       <c r="B534" t="n">
@@ -7382,7 +7382,7 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>t-740517137236647936</t>
+          <t>t-824424167730655233</t>
         </is>
       </c>
       <c r="B535" t="n">
@@ -7395,7 +7395,7 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>t-755694559401762816</t>
+          <t>t-824425957838581760</t>
         </is>
       </c>
       <c r="B536" t="n">
@@ -7408,11 +7408,11 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>t-1041726034662633472</t>
+          <t>t-824537640233889792</t>
         </is>
       </c>
       <c r="B537" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C537" t="n">
         <v>1</v>
@@ -7421,7 +7421,7 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>t-767290506456039424</t>
+          <t>t-824596362859667456</t>
         </is>
       </c>
       <c r="B538" t="n">
@@ -7434,20 +7434,20 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>t-852631745438601216</t>
+          <t>t-824596669597569025</t>
         </is>
       </c>
       <c r="B539" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C539" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>t-991723021709832193</t>
+          <t>t-824814008108593152</t>
         </is>
       </c>
       <c r="B540" t="n">
@@ -7460,7 +7460,7 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>t-855547644516732928</t>
+          <t>t-824990518815842304</t>
         </is>
       </c>
       <c r="B541" t="n">
@@ -7473,33 +7473,33 @@
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>t-855563578274754560</t>
+          <t>t-825140161293934594</t>
         </is>
       </c>
       <c r="B542" t="n">
         <v>1</v>
       </c>
       <c r="C542" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>t-861335479475634176</t>
+          <t>t-825322589002149888</t>
         </is>
       </c>
       <c r="B543" t="n">
         <v>1</v>
       </c>
       <c r="C543" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>t-867414851802599424</t>
+          <t>t-825486203914842112</t>
         </is>
       </c>
       <c r="B544" t="n">
@@ -7512,11 +7512,11 @@
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>t-1002130830792241153</t>
+          <t>t-854250685419986949</t>
         </is>
       </c>
       <c r="B545" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C545" t="n">
         <v>1</v>
@@ -7525,11 +7525,11 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>t-886643817893560320</t>
+          <t>t-854262837673246720</t>
         </is>
       </c>
       <c r="B546" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C546" t="n">
         <v>1</v>
@@ -7538,11 +7538,11 @@
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>t-938446444700237824</t>
+          <t>t-865948979183222784</t>
         </is>
       </c>
       <c r="B547" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C547" t="n">
         <v>1</v>
@@ -7551,7 +7551,7 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>t-956067919263346688</t>
+          <t>t-875288006172831744</t>
         </is>
       </c>
       <c r="B548" t="n">
@@ -7564,11 +7564,11 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>t-956083408882536448</t>
+          <t>t-918517038053814277</t>
         </is>
       </c>
       <c r="B549" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C549" t="n">
         <v>0</v>
@@ -7577,20 +7577,20 @@
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>t-986982915262308353</t>
+          <t>t-921445800072298496</t>
         </is>
       </c>
       <c r="B550" t="n">
         <v>0</v>
       </c>
       <c r="C550" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>t-988323500330045442</t>
+          <t>t-922085813818658816</t>
         </is>
       </c>
       <c r="B551" t="n">
@@ -7603,20 +7603,20 @@
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>t-950875222734929921</t>
+          <t>t-940565575226372102</t>
         </is>
       </c>
       <c r="B552" t="n">
         <v>1</v>
       </c>
       <c r="C552" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>t-950925554487738369</t>
+          <t>t-940637216757477377</t>
         </is>
       </c>
       <c r="B553" t="n">
@@ -7629,24 +7629,24 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>t-495525926722367488</t>
+          <t>t-1061409798053224448</t>
         </is>
       </c>
       <c r="B554" t="n">
         <v>0</v>
       </c>
       <c r="C554" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>t-590545916886659072</t>
+          <t>t-1061535382406348800</t>
         </is>
       </c>
       <c r="B555" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C555" t="n">
         <v>0</v>
@@ -7655,20 +7655,20 @@
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>t-931841011340296192</t>
+          <t>t-509160710316650496</t>
         </is>
       </c>
       <c r="B556" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C556" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>t-498746062224375809</t>
+          <t>t-509293535221145601</t>
         </is>
       </c>
       <c r="B557" t="n">
@@ -7681,20 +7681,20 @@
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>t-499104320717996032</t>
+          <t>t-632870673115774976</t>
         </is>
       </c>
       <c r="B558" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C558" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>t-557932086149918722</t>
+          <t>t-697693466298552321</t>
         </is>
       </c>
       <c r="B559" t="n">
@@ -7707,7 +7707,7 @@
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>t-558466774392266752</t>
+          <t>t-697911341554610176</t>
         </is>
       </c>
       <c r="B560" t="n">
@@ -7720,85 +7720,85 @@
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>t-558501767688642560</t>
+          <t>t-706517570451427328</t>
         </is>
       </c>
       <c r="B561" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C561" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>t-558892309320724482</t>
+          <t>t-762938358486052865</t>
         </is>
       </c>
       <c r="B562" t="n">
         <v>0</v>
       </c>
       <c r="C562" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>t-559263075183104000</t>
+          <t>t-777605888655761409</t>
         </is>
       </c>
       <c r="B563" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C563" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>t-559573400780156928</t>
+          <t>t-778041943855026178</t>
         </is>
       </c>
       <c r="B564" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C564" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>t-579789832131575808</t>
+          <t>t-778431677144018944</t>
         </is>
       </c>
       <c r="B565" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C565" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>t-580874616324943872</t>
+          <t>t-782517721938300928</t>
         </is>
       </c>
       <c r="B566" t="n">
         <v>0</v>
       </c>
       <c r="C566" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>t-627052129107087360</t>
+          <t>t-806390063244410880</t>
         </is>
       </c>
       <c r="B567" t="n">
@@ -7811,7 +7811,7 @@
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>t-627062516095455232</t>
+          <t>t-806499176066453505</t>
         </is>
       </c>
       <c r="B568" t="n">
@@ -7824,7 +7824,7 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>t-627070573118488576</t>
+          <t>t-823758777857908736</t>
         </is>
       </c>
       <c r="B569" t="n">
@@ -7837,7 +7837,7 @@
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>t-627075912631083008</t>
+          <t>t-823809561622695937</t>
         </is>
       </c>
       <c r="B570" t="n">
@@ -7850,7 +7850,7 @@
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>t-627076573653561344</t>
+          <t>t-823868915621052416</t>
         </is>
       </c>
       <c r="B571" t="n">
@@ -7863,24 +7863,24 @@
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>t-645961089671405568</t>
+          <t>t-824113067696930816</t>
         </is>
       </c>
       <c r="B572" t="n">
         <v>1</v>
       </c>
       <c r="C572" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>t-664426560234110976</t>
+          <t>t-824154025864167424</t>
         </is>
       </c>
       <c r="B573" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C573" t="n">
         <v>1</v>
@@ -7889,50 +7889,50 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>t-740084104088199168</t>
+          <t>t-824160171534467072</t>
         </is>
       </c>
       <c r="B574" t="n">
         <v>1</v>
       </c>
       <c r="C574" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>t-755613145079484416</t>
+          <t>t-825053893184753664</t>
         </is>
       </c>
       <c r="B575" t="n">
         <v>1</v>
       </c>
       <c r="C575" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>t-785398387059269632</t>
+          <t>t-825136994833428480</t>
         </is>
       </c>
       <c r="B576" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C576" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>t-790900222368976896</t>
+          <t>t-825930607427416064</t>
         </is>
       </c>
       <c r="B577" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C577" t="n">
         <v>1</v>
@@ -7941,20 +7941,20 @@
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>t-790909371781746688</t>
+          <t>t-827493643661381632</t>
         </is>
       </c>
       <c r="B578" t="n">
         <v>1</v>
       </c>
       <c r="C578" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>t-791594802844434434</t>
+          <t>t-857957864354086912</t>
         </is>
       </c>
       <c r="B579" t="n">
@@ -7967,20 +7967,20 @@
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>t-796846317632790528</t>
+          <t>t-857974981891719168</t>
         </is>
       </c>
       <c r="B580" t="n">
         <v>1</v>
       </c>
       <c r="C580" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>t-814010823689408512</t>
+          <t>t-864437375618830336</t>
         </is>
       </c>
       <c r="B581" t="n">
@@ -7993,24 +7993,24 @@
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>t-823528889578377221</t>
+          <t>t-871870603011043328</t>
         </is>
       </c>
       <c r="B582" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C582" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>t-823565116511617024</t>
+          <t>t-872126007855038464</t>
         </is>
       </c>
       <c r="B583" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C583" t="n">
         <v>0</v>
@@ -8019,7 +8019,7 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>t-823567614731382784</t>
+          <t>t-914680114595602432</t>
         </is>
       </c>
       <c r="B584" t="n">
@@ -8032,7 +8032,7 @@
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>t-823729659921760256</t>
+          <t>t-916572694472155137</t>
         </is>
       </c>
       <c r="B585" t="n">
@@ -8045,11 +8045,11 @@
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>t-823776797145763840</t>
+          <t>t-985916719981060097</t>
         </is>
       </c>
       <c r="B586" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C586" t="n">
         <v>1</v>
@@ -8058,11 +8058,11 @@
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>t-823797969539338240</t>
+          <t>t-985984041508720641</t>
         </is>
       </c>
       <c r="B587" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C587" t="n">
         <v>0</v>
@@ -8071,24 +8071,24 @@
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>t-824162412861464576</t>
+          <t>t-519137345065320448</t>
         </is>
       </c>
       <c r="B588" t="n">
         <v>1</v>
       </c>
       <c r="C588" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>t-824171170761162752</t>
+          <t>t-574404715376603136</t>
         </is>
       </c>
       <c r="B589" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C589" t="n">
         <v>0</v>
@@ -8097,7 +8097,7 @@
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>t-824209269432012802</t>
+          <t>t-585340196557692928</t>
         </is>
       </c>
       <c r="B590" t="n">
@@ -8110,11 +8110,11 @@
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>t-824256850644176897</t>
+          <t>t-645905787584274433</t>
         </is>
       </c>
       <c r="B591" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C591" t="n">
         <v>1</v>
@@ -8123,7 +8123,7 @@
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>t-824424167730655233</t>
+          <t>t-645928760433246209</t>
         </is>
       </c>
       <c r="B592" t="n">
@@ -8136,20 +8136,20 @@
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>t-824425957838581760</t>
+          <t>t-645952188204761088</t>
         </is>
       </c>
       <c r="B593" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C593" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>t-824537640233889792</t>
+          <t>t-646249606892797957</t>
         </is>
       </c>
       <c r="B594" t="n">
@@ -8162,11 +8162,11 @@
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>t-824596362859667456</t>
+          <t>t-659219094017708032</t>
         </is>
       </c>
       <c r="B595" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C595" t="n">
         <v>0</v>
@@ -8175,7 +8175,7 @@
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>t-824596669597569025</t>
+          <t>t-683221184775733248</t>
         </is>
       </c>
       <c r="B596" t="n">
@@ -8188,20 +8188,20 @@
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>t-824814008108593152</t>
+          <t>t-708275780988473345</t>
         </is>
       </c>
       <c r="B597" t="n">
         <v>1</v>
       </c>
       <c r="C597" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>t-824990518815842304</t>
+          <t>t-709001129091174403</t>
         </is>
       </c>
       <c r="B598" t="n">
@@ -8214,20 +8214,20 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>t-825140161293934594</t>
+          <t>t-709281433978687488</t>
         </is>
       </c>
       <c r="B599" t="n">
         <v>1</v>
       </c>
       <c r="C599" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>t-825322589002149888</t>
+          <t>t-713640428369612800</t>
         </is>
       </c>
       <c r="B600" t="n">
@@ -8240,7 +8240,7 @@
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>t-825486203914842112</t>
+          <t>t-713641932795215874</t>
         </is>
       </c>
       <c r="B601" t="n">
@@ -8253,20 +8253,20 @@
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>t-890567544695906304</t>
+          <t>t-713645035460251648</t>
         </is>
       </c>
       <c r="B602" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C602" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>t-912643743894949888</t>
+          <t>t-713649642907406336</t>
         </is>
       </c>
       <c r="B603" t="n">
@@ -8279,20 +8279,20 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>t-947798399184785408</t>
+          <t>t-713682083688767488</t>
         </is>
       </c>
       <c r="B604" t="n">
         <v>1</v>
       </c>
       <c r="C604" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>t-947806740518641664</t>
+          <t>t-714598783724597248</t>
         </is>
       </c>
       <c r="B605" t="n">
@@ -8305,20 +8305,20 @@
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>t-947808691230822401</t>
+          <t>t-714729459107119104</t>
         </is>
       </c>
       <c r="B606" t="n">
         <v>1</v>
       </c>
       <c r="C606" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>t-947833275673747457</t>
+          <t>t-715080311059517440</t>
         </is>
       </c>
       <c r="B607" t="n">
@@ -8331,7 +8331,7 @@
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>t-948185680043155456</t>
+          <t>t-733931111152123906</t>
         </is>
       </c>
       <c r="B608" t="n">
@@ -8344,20 +8344,20 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>t-948407157803728896</t>
+          <t>t-734714075603718144</t>
         </is>
       </c>
       <c r="B609" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C609" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>t-948721205443358720</t>
+          <t>t-734767651981905921</t>
         </is>
       </c>
       <c r="B610" t="n">
@@ -8370,7 +8370,7 @@
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>t-948800260238815232</t>
+          <t>t-735043937040093185</t>
         </is>
       </c>
       <c r="B611" t="n">
@@ -8383,33 +8383,33 @@
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>t-948884291743870976</t>
+          <t>t-736424760335179778</t>
         </is>
       </c>
       <c r="B612" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C612" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>t-1031392016255647744</t>
+          <t>t-749065341586726912</t>
         </is>
       </c>
       <c r="B613" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C613" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>t-1041319973430255616</t>
+          <t>t-789409624138985476</t>
         </is>
       </c>
       <c r="B614" t="n">
@@ -8422,7 +8422,7 @@
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>t-499804424827457538</t>
+          <t>t-789409631646785537</t>
         </is>
       </c>
       <c r="B615" t="n">
@@ -8435,7 +8435,7 @@
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>t-499826521846972416</t>
+          <t>t-868766918035079168</t>
         </is>
       </c>
       <c r="B616" t="n">
@@ -8448,24 +8448,24 @@
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>t-511340405753786369</t>
+          <t>t-912888084739641344</t>
         </is>
       </c>
       <c r="B617" t="n">
         <v>1</v>
       </c>
       <c r="C617" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>t-718742884065759233</t>
+          <t>t-913276391470227456</t>
         </is>
       </c>
       <c r="B618" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C618" t="n">
         <v>1</v>
@@ -8474,59 +8474,59 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>t-820295860747542529</t>
+          <t>t-973099299910250497</t>
         </is>
       </c>
       <c r="B619" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C619" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>t-820993538456289280</t>
+          <t>t-987647411144220672</t>
         </is>
       </c>
       <c r="B620" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C620" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>t-857957864354086912</t>
+          <t>t-1024894521568448513</t>
         </is>
       </c>
       <c r="B621" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C621" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>t-857974981891719168</t>
+          <t>t-548367743385624577</t>
         </is>
       </c>
       <c r="B622" t="n">
         <v>1</v>
       </c>
       <c r="C622" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>t-976046458834116609</t>
+          <t>t-563978477183840256</t>
         </is>
       </c>
       <c r="B623" t="n">
@@ -8539,33 +8539,33 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>t-985916719981060097</t>
+          <t>t-756176490119647232</t>
         </is>
       </c>
       <c r="B624" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C624" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>t-985984041508720641</t>
+          <t>t-839656521227091969</t>
         </is>
       </c>
       <c r="B625" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C625" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>t-545488523856338944</t>
+          <t>t-930049646444945408</t>
         </is>
       </c>
       <c r="B626" t="n">
@@ -8578,7 +8578,7 @@
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>t-573022010348982272</t>
+          <t>t-930646694097645568</t>
         </is>
       </c>
       <c r="B627" t="n">
@@ -8591,37 +8591,37 @@
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>t-574404715376603136</t>
+          <t>t-964120690952564737</t>
         </is>
       </c>
       <c r="B628" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C628" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>t-674612681832140800</t>
+          <t>t-535750936824528896</t>
         </is>
       </c>
       <c r="B629" t="n">
         <v>1</v>
       </c>
       <c r="C629" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>t-675871788564283392</t>
+          <t>t-535750956848140288</t>
         </is>
       </c>
       <c r="B630" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C630" t="n">
         <v>0</v>
@@ -8630,33 +8630,33 @@
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>t-683221184775733248</t>
+          <t>t-535751324143341568</t>
         </is>
       </c>
       <c r="B631" t="n">
         <v>1</v>
       </c>
       <c r="C631" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>t-721601854761619457</t>
+          <t>t-535754365856776193</t>
         </is>
       </c>
       <c r="B632" t="n">
         <v>1</v>
       </c>
       <c r="C632" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>t-721697193174798336</t>
+          <t>t-535786478451048448</t>
         </is>
       </c>
       <c r="B633" t="n">
@@ -8669,11 +8669,11 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>t-740813200766214144</t>
+          <t>t-676067082081976320</t>
         </is>
       </c>
       <c r="B634" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C634" t="n">
         <v>0</v>
@@ -8682,20 +8682,20 @@
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>t-756020759726727169</t>
+          <t>t-768634144851013633</t>
         </is>
       </c>
       <c r="B635" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C635" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>t-789409624138985476</t>
+          <t>t-769506262551715840</t>
         </is>
       </c>
       <c r="B636" t="n">
@@ -8708,20 +8708,20 @@
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>t-789409631646785537</t>
+          <t>t-801312317355003904</t>
         </is>
       </c>
       <c r="B637" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C637" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>t-863988808966053888</t>
+          <t>t-989542585978052610</t>
         </is>
       </c>
       <c r="B638" t="n">
@@ -8734,50 +8734,50 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>t-912888084739641344</t>
+          <t>t-1000752833484881921</t>
         </is>
       </c>
       <c r="B639" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C639" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>t-913276391470227456</t>
+          <t>t-1001352081465212928</t>
         </is>
       </c>
       <c r="B640" t="n">
         <v>1</v>
       </c>
       <c r="C640" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>t-922601399271112704</t>
+          <t>t-780295387017949184</t>
         </is>
       </c>
       <c r="B641" t="n">
         <v>0</v>
       </c>
       <c r="C641" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>t-960348165114273792</t>
+          <t>t-830684745323327488</t>
         </is>
       </c>
       <c r="B642" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C642" t="n">
         <v>1</v>
@@ -8786,33 +8786,33 @@
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>t-976030387188137984</t>
+          <t>t-983954928610697216</t>
         </is>
       </c>
       <c r="B643" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C643" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>t-976030855033319425</t>
+          <t>t-545394272619331584</t>
         </is>
       </c>
       <c r="B644" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C644" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>t-976037405776990208</t>
+          <t>t-694769781573050368</t>
         </is>
       </c>
       <c r="B645" t="n">
@@ -8825,24 +8825,24 @@
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>t-1061598368164528128</t>
+          <t>t-699788036561743872</t>
         </is>
       </c>
       <c r="B646" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C646" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>t-1061625768696930304</t>
+          <t>t-817285829861093377</t>
         </is>
       </c>
       <c r="B647" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C647" t="n">
         <v>1</v>
@@ -8851,7 +8851,7 @@
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>t-1061782167494320130</t>
+          <t>t-919103523458969600</t>
         </is>
       </c>
       <c r="B648" t="n">
@@ -8864,20 +8864,20 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>t-1062219458046058496</t>
+          <t>t-547033780322455552</t>
         </is>
       </c>
       <c r="B649" t="n">
         <v>1</v>
       </c>
       <c r="C649" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>t-548367743385624577</t>
+          <t>t-547601049230782464</t>
         </is>
       </c>
       <c r="B650" t="n">
@@ -8890,7 +8890,7 @@
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>t-706405441522143232</t>
+          <t>t-548131100095442945</t>
         </is>
       </c>
       <c r="B651" t="n">
@@ -8903,7 +8903,7 @@
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>t-831995329318772736</t>
+          <t>t-562992622130954243</t>
         </is>
       </c>
       <c r="B652" t="n">
@@ -8916,11 +8916,11 @@
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>t-930049646444945408</t>
+          <t>t-695999176518184960</t>
         </is>
       </c>
       <c r="B653" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C653" t="n">
         <v>1</v>
@@ -8929,24 +8929,24 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>t-930646694097645568</t>
+          <t>t-708854826730295296</t>
         </is>
       </c>
       <c r="B654" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C654" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>t-964120690952564737</t>
+          <t>t-715026472285708288</t>
         </is>
       </c>
       <c r="B655" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C655" t="n">
         <v>1</v>
@@ -8955,33 +8955,33 @@
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>t-535750936824528896</t>
+          <t>t-723151439586013184</t>
         </is>
       </c>
       <c r="B656" t="n">
         <v>1</v>
       </c>
       <c r="C656" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>t-535750956848140288</t>
+          <t>t-776553403992252416</t>
         </is>
       </c>
       <c r="B657" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C657" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>t-535751324143341568</t>
+          <t>t-776953291594866688</t>
         </is>
       </c>
       <c r="B658" t="n">
@@ -8994,7 +8994,7 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>t-535754365856776193</t>
+          <t>t-776996787567464448</t>
         </is>
       </c>
       <c r="B659" t="n">
@@ -9007,7 +9007,7 @@
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>t-535786478451048448</t>
+          <t>t-777018247778631680</t>
         </is>
       </c>
       <c r="B660" t="n">
@@ -9020,11 +9020,11 @@
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>t-538727466139803648</t>
+          <t>t-777139839556648960</t>
         </is>
       </c>
       <c r="B661" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C661" t="n">
         <v>1</v>
@@ -9033,7 +9033,7 @@
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>t-621352736672473089</t>
+          <t>t-777163982893223936</t>
         </is>
       </c>
       <c r="B662" t="n">
@@ -9046,7 +9046,7 @@
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>t-621526313216536576</t>
+          <t>t-785106169677230080</t>
         </is>
       </c>
       <c r="B663" t="n">
@@ -9059,7 +9059,7 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>t-621967424384925696</t>
+          <t>t-785108107227561984</t>
         </is>
       </c>
       <c r="B664" t="n">
@@ -9072,33 +9072,33 @@
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>t-853130130432176128</t>
+          <t>t-785110315553787904</t>
         </is>
       </c>
       <c r="B665" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C665" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>t-929369497420685312</t>
+          <t>t-785111654228856832</t>
         </is>
       </c>
       <c r="B666" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C666" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>t-936830929384828928</t>
+          <t>t-785153740848308225</t>
         </is>
       </c>
       <c r="B667" t="n">
@@ -9111,7 +9111,7 @@
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>t-936988511051292672</t>
+          <t>t-785284230573993984</t>
         </is>
       </c>
       <c r="B668" t="n">
@@ -9124,7 +9124,7 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>t-989542585978052610</t>
+          <t>t-785337680368467968</t>
         </is>
       </c>
       <c r="B669" t="n">
@@ -9137,50 +9137,50 @@
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>t-791933405902442497</t>
+          <t>t-785343194607202304</t>
         </is>
       </c>
       <c r="B670" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C670" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>t-716900054133399553</t>
+          <t>t-785389967123984386</t>
         </is>
       </c>
       <c r="B671" t="n">
         <v>1</v>
       </c>
       <c r="C671" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>t-983954928610697216</t>
+          <t>t-786190856218746880</t>
         </is>
       </c>
       <c r="B672" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C672" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>t-674974370180239360</t>
+          <t>t-786491706409492481</t>
         </is>
       </c>
       <c r="B673" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C673" t="n">
         <v>0</v>
@@ -9189,7 +9189,7 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>t-699788036561743872</t>
+          <t>t-987943018454962177</t>
         </is>
       </c>
       <c r="B674" t="n">
@@ -9202,20 +9202,20 @@
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>t-935391382331588609</t>
+          <t>t-567587172367077376</t>
         </is>
       </c>
       <c r="B675" t="n">
         <v>1</v>
       </c>
       <c r="C675" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>t-935397608851324931</t>
+          <t>t-577656940282540032</t>
         </is>
       </c>
       <c r="B676" t="n">
@@ -9228,11 +9228,11 @@
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>t-935407791757389824</t>
+          <t>t-544801968703557632</t>
         </is>
       </c>
       <c r="B677" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C677" t="n">
         <v>1</v>
@@ -9241,7 +9241,7 @@
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>t-536910791295778816</t>
+          <t>t-607931728045338625</t>
         </is>
       </c>
       <c r="B678" t="n">
@@ -9254,11 +9254,11 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>t-695999176518184960</t>
+          <t>t-820399938416754688</t>
         </is>
       </c>
       <c r="B679" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C679" t="n">
         <v>1</v>
@@ -9267,20 +9267,20 @@
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>t-702026039967531008</t>
+          <t>t-960667988255850496</t>
         </is>
       </c>
       <c r="B680" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C680" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>t-723151439586013184</t>
+          <t>t-823731915236708352</t>
         </is>
       </c>
       <c r="B681" t="n">
@@ -9293,7 +9293,7 @@
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>t-764336375894306816</t>
+          <t>t-930542567199997958</t>
         </is>
       </c>
       <c r="B682" t="n">
@@ -9306,33 +9306,33 @@
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>t-764417813717086208</t>
+          <t>t-824143990274588672</t>
         </is>
       </c>
       <c r="B683" t="n">
         <v>1</v>
       </c>
       <c r="C683" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>t-859771332908777474</t>
+          <t>t-857803058968838144</t>
         </is>
       </c>
       <c r="B684" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C684" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>t-919895715089932288</t>
+          <t>t-857867986841079808</t>
         </is>
       </c>
       <c r="B685" t="n">
@@ -9345,11 +9345,11 @@
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>t-965551093982769152</t>
+          <t>t-993018034288705536</t>
         </is>
       </c>
       <c r="B686" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C686" t="n">
         <v>1</v>
@@ -9358,7 +9358,7 @@
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>t-966989390873378816</t>
+          <t>t-814411097864159233</t>
         </is>
       </c>
       <c r="B687" t="n">
@@ -9371,11 +9371,11 @@
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>t-544020486527528960</t>
+          <t>t-814414402203983872</t>
         </is>
       </c>
       <c r="B688" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C688" t="n">
         <v>1</v>
@@ -9384,7 +9384,7 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>t-567587172367077376</t>
+          <t>t-814417111921479680</t>
         </is>
       </c>
       <c r="B689" t="n">
@@ -9397,7 +9397,7 @@
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>t-607931728045338625</t>
+          <t>t-814418757657296896</t>
         </is>
       </c>
       <c r="B690" t="n">
@@ -9410,7 +9410,7 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>t-930542567199997958</t>
+          <t>t-814543705935736832</t>
         </is>
       </c>
       <c r="B691" t="n">
@@ -9423,7 +9423,7 @@
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>t-1039555557609201664</t>
+          <t>t-908138128514437120</t>
         </is>
       </c>
       <c r="B692" t="n">
@@ -9436,11 +9436,11 @@
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>t-812248571802025984</t>
+          <t>t-950631505486737408</t>
         </is>
       </c>
       <c r="B693" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C693" t="n">
         <v>0</v>
@@ -9449,7 +9449,7 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>t-950631505486737408</t>
+          <t>t-950698684148142080</t>
         </is>
       </c>
       <c r="B694" t="n">
@@ -9462,20 +9462,20 @@
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>t-950698684148142080</t>
+          <t>t-558523740888109056</t>
         </is>
       </c>
       <c r="B695" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C695" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>t-703883305427427329</t>
+          <t>t-704474821959163905</t>
         </is>
       </c>
       <c r="B696" t="n">
@@ -9488,37 +9488,37 @@
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>t-704164134657486848</t>
+          <t>t-936534965277294597</t>
         </is>
       </c>
       <c r="B697" t="n">
         <v>1</v>
       </c>
       <c r="C697" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>t-556107639625510912</t>
+          <t>t-936606274795462656</t>
         </is>
       </c>
       <c r="B698" t="n">
         <v>1</v>
       </c>
       <c r="C698" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>t-558523740888109056</t>
+          <t>t-954254379967660032</t>
         </is>
       </c>
       <c r="B699" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C699" t="n">
         <v>1</v>
@@ -9527,7 +9527,7 @@
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>t-808956641743732736</t>
+          <t>t-563225583400648704</t>
         </is>
       </c>
       <c r="B700" t="n">
@@ -9540,7 +9540,7 @@
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>t-809733108471889920</t>
+          <t>t-761430337377349632</t>
         </is>
       </c>
       <c r="B701" t="n">
@@ -9553,11 +9553,11 @@
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>t-832028212376985600</t>
+          <t>t-905053100729356288</t>
         </is>
       </c>
       <c r="B702" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C702" t="n">
         <v>1</v>
@@ -9566,76 +9566,76 @@
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>t-832064333504933888</t>
+          <t>t-978443713629204480</t>
         </is>
       </c>
       <c r="B703" t="n">
         <v>1</v>
       </c>
       <c r="C703" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>t-962542177514500096</t>
+          <t>t-978559522900910080</t>
         </is>
       </c>
       <c r="B704" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C704" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>t-563242661562576896</t>
+          <t>t-979975965760720898</t>
         </is>
       </c>
       <c r="B705" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C705" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>t-564304402253508608</t>
+          <t>t-605944627380817920</t>
         </is>
       </c>
       <c r="B706" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C706" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>t-638407777333850112</t>
+          <t>t-702366811925438465</t>
         </is>
       </c>
       <c r="B707" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C707" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>t-698712295900229633</t>
+          <t>t-777104599379423233</t>
         </is>
       </c>
       <c r="B708" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C708" t="n">
         <v>1</v>
@@ -9644,7 +9644,7 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>t-775600763481436160</t>
+          <t>t-777106884058763264</t>
         </is>
       </c>
       <c r="B709" t="n">
@@ -9657,11 +9657,11 @@
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>t-805321168580395008</t>
+          <t>t-843318937064366080</t>
         </is>
       </c>
       <c r="B710" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C710" t="n">
         <v>1</v>
@@ -9670,24 +9670,24 @@
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>t-584288298249531392</t>
+          <t>t-998772384076320768</t>
         </is>
       </c>
       <c r="B711" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C711" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>t-777104599379423233</t>
+          <t>t-998825906733920257</t>
         </is>
       </c>
       <c r="B712" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C712" t="n">
         <v>1</v>
@@ -9696,11 +9696,11 @@
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>t-777106884058763264</t>
+          <t>t-572370799971053568</t>
         </is>
       </c>
       <c r="B713" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C713" t="n">
         <v>1</v>
@@ -9709,7 +9709,7 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>t-802066289527095297</t>
+          <t>t-883957999576002561</t>
         </is>
       </c>
       <c r="B714" t="n">
@@ -9722,7 +9722,7 @@
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>t-802114052063252481</t>
+          <t>t-935417453286326277</t>
         </is>
       </c>
       <c r="B715" t="n">
@@ -9735,7 +9735,7 @@
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>t-833819761821757440</t>
+          <t>t-812509278762242048</t>
         </is>
       </c>
       <c r="B716" t="n">
@@ -9748,7 +9748,7 @@
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>t-837085298324619265</t>
+          <t>t-697592269315010562</t>
         </is>
       </c>
       <c r="B717" t="n">
@@ -9761,7 +9761,7 @@
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>t-683203716623646720</t>
+          <t>t-697721034691096580</t>
         </is>
       </c>
       <c r="B718" t="n">
@@ -9774,7 +9774,7 @@
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>t-820218394255339521</t>
+          <t>t-829258775257346048</t>
         </is>
       </c>
       <c r="B719" t="n">
@@ -9787,7 +9787,7 @@
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>t-737450472194211841</t>
+          <t>t-829280839464845312</t>
         </is>
       </c>
       <c r="B720" t="n">
@@ -9800,7 +9800,7 @@
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>t-737498199435317252</t>
+          <t>t-829291437292396544</t>
         </is>
       </c>
       <c r="B721" t="n">
@@ -9813,7 +9813,7 @@
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>t-829258775257346048</t>
+          <t>t-829294998201970688</t>
         </is>
       </c>
       <c r="B722" t="n">
@@ -9826,7 +9826,7 @@
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>t-829280839464845312</t>
+          <t>t-829512724761620480</t>
         </is>
       </c>
       <c r="B723" t="n">
@@ -9839,7 +9839,7 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>t-829291437292396544</t>
+          <t>t-702431733740920832</t>
         </is>
       </c>
       <c r="B724" t="n">
@@ -9852,7 +9852,7 @@
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>t-829294998201970688</t>
+          <t>t-702439207684464640</t>
         </is>
       </c>
       <c r="B725" t="n">
@@ -9865,11 +9865,11 @@
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>t-829512724761620480</t>
+          <t>t-732116489394851840</t>
         </is>
       </c>
       <c r="B726" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C726" t="n">
         <v>1</v>
@@ -9878,7 +9878,7 @@
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>t-702431733740920832</t>
+          <t>t-732306842290946048</t>
         </is>
       </c>
       <c r="B727" t="n">
@@ -9891,7 +9891,7 @@
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>t-702439207684464640</t>
+          <t>t-760724447745699841</t>
         </is>
       </c>
       <c r="B728" t="n">
@@ -9904,7 +9904,7 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>t-760724447745699841</t>
+          <t>t-964014223184375808</t>
         </is>
       </c>
       <c r="B729" t="n">
@@ -9917,7 +9917,7 @@
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>t-946177924222222336</t>
+          <t>t-797677972547219456</t>
         </is>
       </c>
       <c r="B730" t="n">
@@ -9930,39 +9930,26 @@
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>t-798490523820380160</t>
+          <t>t-833912149630078976</t>
         </is>
       </c>
       <c r="B731" t="n">
         <v>1</v>
       </c>
       <c r="C731" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>t-833862725059031044</t>
+          <t>t-940573035752386560</t>
         </is>
       </c>
       <c r="B732" t="n">
         <v>1</v>
       </c>
       <c r="C732" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="733">
-      <c r="A733" t="inlineStr">
-        <is>
-          <t>t-833891988315336704</t>
-        </is>
-      </c>
-      <c r="B733" t="n">
-        <v>1</v>
-      </c>
-      <c r="C733" t="n">
         <v>1</v>
       </c>
     </row>
